--- a/Dados-TCC.xlsx
+++ b/Dados-TCC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30377711-E5FC-4A93-9291-3632CCFCCEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="391">
   <si>
     <t>Preço do Terreno (R$)</t>
   </si>
@@ -1176,9 +1177,6 @@
   </si>
   <si>
     <t>22441-001</t>
-  </si>
-  <si>
-    <t>22240-000</t>
   </si>
   <si>
     <t>22070-011</t>
@@ -1205,7 +1203,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1240,9 +1241,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1524,23 +1526,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H558"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="H411" sqref="H411"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="A525" sqref="A525:XFD525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1563,10 +1566,10 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1200000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6000</v>
       </c>
       <c r="C2" t="s">
@@ -1589,10 +1592,10 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1000000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5000</v>
       </c>
       <c r="C3" t="s">
@@ -1615,10 +1618,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1500000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>7500</v>
       </c>
       <c r="C4" t="s">
@@ -1641,10 +1644,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>800000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4000</v>
       </c>
       <c r="C5" t="s">
@@ -1667,10 +1670,10 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1400000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>7000</v>
       </c>
       <c r="C6" t="s">
@@ -1693,10 +1696,10 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1100000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>5500</v>
       </c>
       <c r="C7" t="s">
@@ -1719,10 +1722,10 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>950000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4750</v>
       </c>
       <c r="C8" t="s">
@@ -1745,10 +1748,10 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>1000000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>5000</v>
       </c>
       <c r="C9" t="s">
@@ -1771,10 +1774,10 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>1350000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>6750</v>
       </c>
       <c r="C10" t="s">
@@ -1797,10 +1800,10 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1050000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>5250</v>
       </c>
       <c r="C11" t="s">
@@ -1823,10 +1826,10 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>1200000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>6000</v>
       </c>
       <c r="C12" t="s">
@@ -1849,10 +1852,10 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>1000000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>5000</v>
       </c>
       <c r="C13" t="s">
@@ -1875,10 +1878,10 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>1500000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>7500</v>
       </c>
       <c r="C14" t="s">
@@ -1901,10 +1904,10 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>800000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>4000</v>
       </c>
       <c r="C15" t="s">
@@ -1914,10 +1917,10 @@
         <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -1927,10 +1930,10 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>1400000</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>7000</v>
       </c>
       <c r="C16" t="s">
@@ -1953,10 +1956,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>1100000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>5500</v>
       </c>
       <c r="C17" t="s">
@@ -1979,10 +1982,10 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>950000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>4750</v>
       </c>
       <c r="C18" t="s">
@@ -2005,10 +2008,10 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>1000000</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>5000</v>
       </c>
       <c r="C19" t="s">
@@ -2031,10 +2034,10 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>1350000</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>6750</v>
       </c>
       <c r="C20" t="s">
@@ -2057,17 +2060,17 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>1050000</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>5250</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
@@ -2083,10 +2086,10 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>1200000</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>6000</v>
       </c>
       <c r="C22" t="s">
@@ -2109,10 +2112,10 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>1000000</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>5000</v>
       </c>
       <c r="C23" t="s">
@@ -2135,10 +2138,10 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>1500000</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>7500</v>
       </c>
       <c r="C24" t="s">
@@ -2161,10 +2164,10 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>800000</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>4000</v>
       </c>
       <c r="C25" t="s">
@@ -2187,10 +2190,10 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>1400000</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>7000</v>
       </c>
       <c r="C26" t="s">
@@ -2213,10 +2216,10 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>1100000</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>5500</v>
       </c>
       <c r="C27" t="s">
@@ -2239,10 +2242,10 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>950000</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>4750</v>
       </c>
       <c r="C28" t="s">
@@ -2265,10 +2268,10 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>1000000</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>5000</v>
       </c>
       <c r="C29" t="s">
@@ -2291,10 +2294,10 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>1350000</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>6750</v>
       </c>
       <c r="C30" t="s">
@@ -2317,10 +2320,10 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>1050000</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>5250</v>
       </c>
       <c r="C31" t="s">
@@ -2343,10 +2346,10 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>1200000</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>6000</v>
       </c>
       <c r="C32" t="s">
@@ -2369,10 +2372,10 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>1000000</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>5000</v>
       </c>
       <c r="C33" t="s">
@@ -2395,10 +2398,10 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>1500000</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>7500</v>
       </c>
       <c r="C34" t="s">
@@ -2421,10 +2424,10 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>800000</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>4000</v>
       </c>
       <c r="C35" t="s">
@@ -2447,10 +2450,10 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>1400000</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>7000</v>
       </c>
       <c r="C36" t="s">
@@ -2473,10 +2476,10 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>1100000</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>5500</v>
       </c>
       <c r="C37" t="s">
@@ -2499,10 +2502,10 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>950000</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>4750</v>
       </c>
       <c r="C38" t="s">
@@ -2525,10 +2528,10 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>1000000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>5000</v>
       </c>
       <c r="C39" t="s">
@@ -2551,10 +2554,10 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>1350000</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>6750</v>
       </c>
       <c r="C40" t="s">
@@ -2577,10 +2580,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>1050000</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>5250</v>
       </c>
       <c r="C41" t="s">
@@ -2603,10 +2606,10 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>1200000</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>6000</v>
       </c>
       <c r="C42" t="s">
@@ -2629,10 +2632,10 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>1000000</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>5000</v>
       </c>
       <c r="C43" t="s">
@@ -2655,10 +2658,10 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>1500000</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>7500</v>
       </c>
       <c r="C44" t="s">
@@ -2681,10 +2684,10 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>800000</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>4000</v>
       </c>
       <c r="C45" t="s">
@@ -2707,10 +2710,10 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>1400000</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>7000</v>
       </c>
       <c r="C46" t="s">
@@ -2733,10 +2736,10 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>1100000</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>5500</v>
       </c>
       <c r="C47" t="s">
@@ -2759,10 +2762,10 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>950000</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>4750</v>
       </c>
       <c r="C48" t="s">
@@ -2785,10 +2788,10 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>1000000</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>5000</v>
       </c>
       <c r="C49" t="s">
@@ -2811,10 +2814,10 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>1350000</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>6750</v>
       </c>
       <c r="C50" t="s">
@@ -2837,10 +2840,10 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>1050000</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>5250</v>
       </c>
       <c r="C51" t="s">
@@ -2863,10 +2866,10 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>1200000</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>6000</v>
       </c>
       <c r="C52" t="s">
@@ -2889,10 +2892,10 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>1000000</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>5000</v>
       </c>
       <c r="C53" t="s">
@@ -2915,10 +2918,10 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>1500000</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>7500</v>
       </c>
       <c r="C54" t="s">
@@ -2941,10 +2944,10 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>800000</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>4000</v>
       </c>
       <c r="C55" t="s">
@@ -2967,10 +2970,10 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>1400000</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>7000</v>
       </c>
       <c r="C56" t="s">
@@ -2993,10 +2996,10 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>1100000</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>5500</v>
       </c>
       <c r="C57" t="s">
@@ -3019,10 +3022,10 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>950000</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>4750</v>
       </c>
       <c r="C58" t="s">
@@ -3045,10 +3048,10 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>1000000</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>5000</v>
       </c>
       <c r="C59" t="s">
@@ -3071,10 +3074,10 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>1350000</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>6750</v>
       </c>
       <c r="C60" t="s">
@@ -3097,10 +3100,10 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>1050000</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>5250</v>
       </c>
       <c r="C61" t="s">
@@ -3123,10 +3126,10 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>1200000</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>6000</v>
       </c>
       <c r="C62" t="s">
@@ -3149,10 +3152,10 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>1000000</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>5000</v>
       </c>
       <c r="C63" t="s">
@@ -3175,10 +3178,10 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>1500000</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>7500</v>
       </c>
       <c r="C64" t="s">
@@ -3201,10 +3204,10 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>800000</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>4000</v>
       </c>
       <c r="C65" t="s">
@@ -3227,10 +3230,10 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>1400000</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>7000</v>
       </c>
       <c r="C66" t="s">
@@ -3253,10 +3256,10 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>1100000</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>5500</v>
       </c>
       <c r="C67" t="s">
@@ -3279,10 +3282,10 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>950000</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>4750</v>
       </c>
       <c r="C68" t="s">
@@ -3305,10 +3308,10 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>1000000</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>5000</v>
       </c>
       <c r="C69" t="s">
@@ -3331,10 +3334,10 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>1350000</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>6750</v>
       </c>
       <c r="C70" t="s">
@@ -3357,10 +3360,10 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>1050000</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>5250</v>
       </c>
       <c r="C71" t="s">
@@ -3383,10 +3386,10 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>950000</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>4750</v>
       </c>
       <c r="C72" t="s">
@@ -3409,10 +3412,10 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>1300000</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>6500</v>
       </c>
       <c r="C73" t="s">
@@ -3435,10 +3438,10 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>780000</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>3900</v>
       </c>
       <c r="C74" t="s">
@@ -3461,10 +3464,10 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>980000</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>4900</v>
       </c>
       <c r="C75" t="s">
@@ -3487,10 +3490,10 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>1420000</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>7100</v>
       </c>
       <c r="C76" t="s">
@@ -3513,10 +3516,10 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>1150000</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>5750</v>
       </c>
       <c r="C77" t="s">
@@ -3539,10 +3542,10 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>1050000</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>5250</v>
       </c>
       <c r="C78" t="s">
@@ -3565,10 +3568,10 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>720000</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>3600</v>
       </c>
       <c r="C79" t="s">
@@ -3591,10 +3594,10 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>860000</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>4300</v>
       </c>
       <c r="C80" t="s">
@@ -3617,10 +3620,10 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>1250000</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>6250</v>
       </c>
       <c r="C81" t="s">
@@ -3643,10 +3646,10 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>910000</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>4550</v>
       </c>
       <c r="C82" t="s">
@@ -3669,10 +3672,10 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>720000</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>3600</v>
       </c>
       <c r="C83" t="s">
@@ -3695,10 +3698,10 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>1330000</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>6650</v>
       </c>
       <c r="C84" t="s">
@@ -3721,10 +3724,10 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>800000</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>4000</v>
       </c>
       <c r="C85" t="s">
@@ -3747,10 +3750,10 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>1150000</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>5750</v>
       </c>
       <c r="C86" t="s">
@@ -3773,10 +3776,10 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>750000</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>3750</v>
       </c>
       <c r="C87" t="s">
@@ -3799,10 +3802,10 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>1350000</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>6750</v>
       </c>
       <c r="C88" t="s">
@@ -3825,10 +3828,10 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>1100000</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>5500</v>
       </c>
       <c r="C89" t="s">
@@ -3851,10 +3854,10 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>930000</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>4650</v>
       </c>
       <c r="C90" t="s">
@@ -3877,10 +3880,10 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>830000</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>4150</v>
       </c>
       <c r="C91" t="s">
@@ -3903,10 +3906,10 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>1180000</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>5900</v>
       </c>
       <c r="C92" t="s">
@@ -3929,10 +3932,10 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>980000</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>4900</v>
       </c>
       <c r="C93" t="s">
@@ -3955,10 +3958,10 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>880000</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>4400</v>
       </c>
       <c r="C94" t="s">
@@ -3981,10 +3984,10 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>760000</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>3800</v>
       </c>
       <c r="C95" t="s">
@@ -4007,10 +4010,10 @@
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>1020000</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>5100</v>
       </c>
       <c r="C96" t="s">
@@ -4033,10 +4036,10 @@
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>1280000</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>6400</v>
       </c>
       <c r="C97" t="s">
@@ -4059,10 +4062,10 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>790000</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>3950</v>
       </c>
       <c r="C98" t="s">
@@ -4085,10 +4088,10 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>1250000</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>6250</v>
       </c>
       <c r="C99" t="s">
@@ -4111,10 +4114,10 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>1440000</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>7200</v>
       </c>
       <c r="C100" t="s">
@@ -4137,10 +4140,10 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>1210000</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>6050</v>
       </c>
       <c r="C101" t="s">
@@ -4163,10 +4166,10 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>1090000</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>5450</v>
       </c>
       <c r="C102" t="s">
@@ -4189,10 +4192,10 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>780000</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>3900</v>
       </c>
       <c r="C103" t="s">
@@ -4215,10 +4218,10 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>980000</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>4900</v>
       </c>
       <c r="C104" t="s">
@@ -4241,10 +4244,10 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>1140000</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>5700</v>
       </c>
       <c r="C105" t="s">
@@ -4267,10 +4270,10 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>700000</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>3500</v>
       </c>
       <c r="C106" t="s">
@@ -4293,10 +4296,10 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>1290000</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>6450</v>
       </c>
       <c r="C107" t="s">
@@ -4319,10 +4322,10 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>760000</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>3800</v>
       </c>
       <c r="C108" t="s">
@@ -4345,10 +4348,10 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>980000</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>4900</v>
       </c>
       <c r="C109" t="s">
@@ -4371,10 +4374,10 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>800000</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>4000</v>
       </c>
       <c r="C110" t="s">
@@ -4397,10 +4400,10 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>1330000</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>6650</v>
       </c>
       <c r="C111" t="s">
@@ -4423,10 +4426,10 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>900000</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>4500</v>
       </c>
       <c r="C112" t="s">
@@ -4449,10 +4452,10 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>710000</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>3550</v>
       </c>
       <c r="C113" t="s">
@@ -4475,10 +4478,10 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>1070000</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>5350</v>
       </c>
       <c r="C114" t="s">
@@ -4501,10 +4504,10 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>750000</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>3750</v>
       </c>
       <c r="C115" t="s">
@@ -4527,10 +4530,10 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>1210000</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>6050</v>
       </c>
       <c r="C116" t="s">
@@ -4540,7 +4543,7 @@
         <v>86</v>
       </c>
       <c r="E116" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F116" t="s">
         <v>11</v>
@@ -4553,10 +4556,10 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>940000</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>4700</v>
       </c>
       <c r="C117" t="s">
@@ -4579,10 +4582,10 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>1380000</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>6900</v>
       </c>
       <c r="C118" t="s">
@@ -4605,10 +4608,10 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>790000</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>3950</v>
       </c>
       <c r="C119" t="s">
@@ -4631,10 +4634,10 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>1090000</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>5450</v>
       </c>
       <c r="C120" t="s">
@@ -4657,10 +4660,10 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>1430000</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>7150</v>
       </c>
       <c r="C121" t="s">
@@ -4683,10 +4686,10 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>1230000</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>6150</v>
       </c>
       <c r="C122" t="s">
@@ -4709,10 +4712,10 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>1170000</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>5850</v>
       </c>
       <c r="C123" t="s">
@@ -4735,10 +4738,10 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>870000</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>4350</v>
       </c>
       <c r="C124" t="s">
@@ -4761,10 +4764,10 @@
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>950000</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>4750</v>
       </c>
       <c r="C125" t="s">
@@ -4787,10 +4790,10 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>1240000</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>6200</v>
       </c>
       <c r="C126" t="s">
@@ -4813,10 +4816,10 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>830000</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>4150</v>
       </c>
       <c r="C127" t="s">
@@ -4839,10 +4842,10 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>1110000</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>5550</v>
       </c>
       <c r="C128" t="s">
@@ -4865,10 +4868,10 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>1320000</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>6600</v>
       </c>
       <c r="C129" t="s">
@@ -4891,10 +4894,10 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>920000</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>4600</v>
       </c>
       <c r="C130" t="s">
@@ -4917,10 +4920,10 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>1160000</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>5800</v>
       </c>
       <c r="C131" t="s">
@@ -4943,10 +4946,10 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>930000</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>4650</v>
       </c>
       <c r="C132" t="s">
@@ -4969,10 +4972,10 @@
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>1310000</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>6550</v>
       </c>
       <c r="C133" t="s">
@@ -4995,10 +4998,10 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>790000</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>3950</v>
       </c>
       <c r="C134" t="s">
@@ -5021,10 +5024,10 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>970000</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>4850</v>
       </c>
       <c r="C135" t="s">
@@ -5047,10 +5050,10 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>1430000</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>7150</v>
       </c>
       <c r="C136" t="s">
@@ -5073,10 +5076,10 @@
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>1160000</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>5800</v>
       </c>
       <c r="C137" t="s">
@@ -5099,10 +5102,10 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>1040000</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>5200</v>
       </c>
       <c r="C138" t="s">
@@ -5125,10 +5128,10 @@
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>710000</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>3550</v>
       </c>
       <c r="C139" t="s">
@@ -5151,10 +5154,10 @@
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>850000</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>4250</v>
       </c>
       <c r="C140" t="s">
@@ -5177,10 +5180,10 @@
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="1">
+      <c r="A141" s="2">
         <v>1240000</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>6200</v>
       </c>
       <c r="C141" t="s">
@@ -5203,10 +5206,10 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="1">
+      <c r="A142" s="2">
         <v>900000</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>4500</v>
       </c>
       <c r="C142" t="s">
@@ -5229,10 +5232,10 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="1">
+      <c r="A143" s="2">
         <v>720000</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>3600</v>
       </c>
       <c r="C143" t="s">
@@ -5255,10 +5258,10 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="1">
+      <c r="A144" s="2">
         <v>1320000</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>6600</v>
       </c>
       <c r="C144" t="s">
@@ -5281,10 +5284,10 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="1">
+      <c r="A145" s="2">
         <v>810000</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>4050</v>
       </c>
       <c r="C145" t="s">
@@ -5307,10 +5310,10 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="1">
+      <c r="A146" s="2">
         <v>1170000</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>5850</v>
       </c>
       <c r="C146" t="s">
@@ -5333,10 +5336,10 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="1">
+      <c r="A147" s="2">
         <v>760000</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>3800</v>
       </c>
       <c r="C147" t="s">
@@ -5359,10 +5362,10 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="1">
+      <c r="A148" s="2">
         <v>1340000</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>6700</v>
       </c>
       <c r="C148" t="s">
@@ -5385,10 +5388,10 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="1">
+      <c r="A149" s="2">
         <v>1090000</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>5450</v>
       </c>
       <c r="C149" t="s">
@@ -5411,10 +5414,10 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="1">
+      <c r="A150" s="2">
         <v>920000</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>4600</v>
       </c>
       <c r="C150" t="s">
@@ -5437,10 +5440,10 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="1">
+      <c r="A151" s="2">
         <v>820000</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>4100</v>
       </c>
       <c r="C151" t="s">
@@ -5463,10 +5466,10 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="1">
+      <c r="A152" s="2">
         <v>1170000</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <v>5850</v>
       </c>
       <c r="C152" t="s">
@@ -5489,10 +5492,10 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="1">
+      <c r="A153" s="2">
         <v>970000</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
         <v>4850</v>
       </c>
       <c r="C153" t="s">
@@ -5515,10 +5518,10 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>870000</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>4350</v>
       </c>
       <c r="C154" t="s">
@@ -5541,10 +5544,10 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>750000</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>3750</v>
       </c>
       <c r="C155" t="s">
@@ -5567,10 +5570,10 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>1030000</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>5150</v>
       </c>
       <c r="C156" t="s">
@@ -5593,10 +5596,10 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>1270000</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>6350</v>
       </c>
       <c r="C157" t="s">
@@ -5619,10 +5622,10 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>780000</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>3900</v>
       </c>
       <c r="C158" t="s">
@@ -5645,10 +5648,10 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="1">
+      <c r="A159" s="2">
         <v>1240000</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>6200</v>
       </c>
       <c r="C159" t="s">
@@ -5671,10 +5674,10 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="1">
+      <c r="A160" s="2">
         <v>1450000</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>7250</v>
       </c>
       <c r="C160" t="s">
@@ -5697,10 +5700,10 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>1220000</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>6100</v>
       </c>
       <c r="C161" t="s">
@@ -5723,10 +5726,10 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>1080000</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>5400</v>
       </c>
       <c r="C162" t="s">
@@ -5749,10 +5752,10 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>760000</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>3800</v>
       </c>
       <c r="C163" t="s">
@@ -5775,10 +5778,10 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="1">
+      <c r="A164" s="2">
         <v>970000</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>4850</v>
       </c>
       <c r="C164" t="s">
@@ -5801,10 +5804,10 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="1">
+      <c r="A165" s="2">
         <v>1130000</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>5650</v>
       </c>
       <c r="C165" t="s">
@@ -5827,10 +5830,10 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="1">
+      <c r="A166" s="2">
         <v>690000</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>3450</v>
       </c>
       <c r="C166" t="s">
@@ -5853,10 +5856,10 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="1">
+      <c r="A167" s="2">
         <v>1280000</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>6400</v>
       </c>
       <c r="C167" t="s">
@@ -5879,10 +5882,10 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="1">
+      <c r="A168" s="2">
         <v>740000</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>3700</v>
       </c>
       <c r="C168" t="s">
@@ -5905,10 +5908,10 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="1">
+      <c r="A169" s="2">
         <v>970000</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>4850</v>
       </c>
       <c r="C169" t="s">
@@ -5931,10 +5934,10 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="1">
+      <c r="A170" s="2">
         <v>810000</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>4050</v>
       </c>
       <c r="C170" t="s">
@@ -5957,10 +5960,10 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="1">
+      <c r="A171" s="2">
         <v>1320000</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>6600</v>
       </c>
       <c r="C171" t="s">
@@ -5983,10 +5986,10 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="1">
+      <c r="A172" s="2">
         <v>890000</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>4450</v>
       </c>
       <c r="C172" t="s">
@@ -6009,10 +6012,10 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="1">
+      <c r="A173" s="2">
         <v>700000</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <v>3500</v>
       </c>
       <c r="C173" t="s">
@@ -6035,10 +6038,10 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="1">
+      <c r="A174" s="2">
         <v>1060000</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1">
         <v>5300</v>
       </c>
       <c r="C174" t="s">
@@ -6061,10 +6064,10 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="1">
+      <c r="A175" s="2">
         <v>730000</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>3650</v>
       </c>
       <c r="C175" t="s">
@@ -6087,10 +6090,10 @@
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="1">
+      <c r="A176" s="2">
         <v>1210000</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>6050</v>
       </c>
       <c r="C176" t="s">
@@ -6113,10 +6116,10 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="1">
+      <c r="A177" s="2">
         <v>920000</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>4600</v>
       </c>
       <c r="C177" t="s">
@@ -6139,10 +6142,10 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="1">
+      <c r="A178" s="2">
         <v>1390000</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>6950</v>
       </c>
       <c r="C178" t="s">
@@ -6165,10 +6168,10 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="1">
+      <c r="A179" s="2">
         <v>780000</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>3900</v>
       </c>
       <c r="C179" t="s">
@@ -6191,10 +6194,10 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="1">
+      <c r="A180" s="2">
         <v>1060000</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>5300</v>
       </c>
       <c r="C180" t="s">
@@ -6217,10 +6220,10 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="1">
+      <c r="A181" s="2">
         <v>1440000</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>7200</v>
       </c>
       <c r="C181" t="s">
@@ -6243,10 +6246,10 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="1">
+      <c r="A182" s="2">
         <v>1220000</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>6100</v>
       </c>
       <c r="C182" t="s">
@@ -6269,10 +6272,10 @@
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="1">
+      <c r="A183" s="2">
         <v>1160000</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1">
         <v>5800</v>
       </c>
       <c r="C183" t="s">
@@ -6295,10 +6298,10 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="1">
+      <c r="A184" s="2">
         <v>850000</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1">
         <v>4250</v>
       </c>
       <c r="C184" t="s">
@@ -6321,10 +6324,10 @@
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="1">
+      <c r="A185" s="2">
         <v>940000</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>4700</v>
       </c>
       <c r="C185" t="s">
@@ -6347,10 +6350,10 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="1">
+      <c r="A186" s="2">
         <v>1250000</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>6250</v>
       </c>
       <c r="C186" t="s">
@@ -6373,10 +6376,10 @@
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="1">
+      <c r="A187" s="2">
         <v>820000</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>4100</v>
       </c>
       <c r="C187" t="s">
@@ -6399,10 +6402,10 @@
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="1">
+      <c r="A188" s="2">
         <v>1120000</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>5600</v>
       </c>
       <c r="C188" t="s">
@@ -6425,10 +6428,10 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="1">
+      <c r="A189" s="2">
         <v>1310000</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>6550</v>
       </c>
       <c r="C189" t="s">
@@ -6451,10 +6454,10 @@
       </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="1">
+      <c r="A190" s="2">
         <v>910000</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>4550</v>
       </c>
       <c r="C190" t="s">
@@ -6477,10 +6480,10 @@
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="1">
+      <c r="A191" s="2">
         <v>1150000</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>5750</v>
       </c>
       <c r="C191" t="s">
@@ -6503,10 +6506,10 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="1">
+      <c r="A192" s="2">
         <v>930000</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>4650</v>
       </c>
       <c r="C192" t="s">
@@ -6529,10 +6532,10 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="1">
+      <c r="A193" s="2">
         <v>1310000</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>6550</v>
       </c>
       <c r="C193" t="s">
@@ -6555,10 +6558,10 @@
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="1">
+      <c r="A194" s="2">
         <v>790000</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1">
         <v>3950</v>
       </c>
       <c r="C194" t="s">
@@ -6581,10 +6584,10 @@
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="1">
+      <c r="A195" s="2">
         <v>970000</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1">
         <v>4850</v>
       </c>
       <c r="C195" t="s">
@@ -6607,10 +6610,10 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="1">
+      <c r="A196" s="2">
         <v>1430000</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="1">
         <v>7150</v>
       </c>
       <c r="C196" t="s">
@@ -6633,10 +6636,10 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="1">
+      <c r="A197" s="2">
         <v>1160000</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="1">
         <v>5800</v>
       </c>
       <c r="C197" t="s">
@@ -6659,10 +6662,10 @@
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="1">
+      <c r="A198" s="2">
         <v>1040000</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="1">
         <v>5200</v>
       </c>
       <c r="C198" t="s">
@@ -6685,10 +6688,10 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="1">
+      <c r="A199" s="2">
         <v>710000</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>3550</v>
       </c>
       <c r="C199" t="s">
@@ -6711,10 +6714,10 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="1">
+      <c r="A200" s="2">
         <v>850000</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>4250</v>
       </c>
       <c r="C200" t="s">
@@ -6737,10 +6740,10 @@
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="1">
+      <c r="A201" s="2">
         <v>1240000</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1">
         <v>6200</v>
       </c>
       <c r="C201" t="s">
@@ -6763,10 +6766,10 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="1">
+      <c r="A202" s="2">
         <v>900000</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="1">
         <v>4500</v>
       </c>
       <c r="C202" t="s">
@@ -6789,10 +6792,10 @@
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="1">
+      <c r="A203" s="2">
         <v>720000</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="1">
         <v>3600</v>
       </c>
       <c r="C203" t="s">
@@ -6815,10 +6818,10 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="1">
+      <c r="A204" s="2">
         <v>1320000</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="1">
         <v>6600</v>
       </c>
       <c r="C204" t="s">
@@ -6841,10 +6844,10 @@
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="1">
+      <c r="A205" s="2">
         <v>810000</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="1">
         <v>4050</v>
       </c>
       <c r="C205" t="s">
@@ -6867,10 +6870,10 @@
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="1">
+      <c r="A206" s="2">
         <v>1170000</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1">
         <v>5850</v>
       </c>
       <c r="C206" t="s">
@@ -6893,10 +6896,10 @@
       </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="1">
+      <c r="A207" s="2">
         <v>760000</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="1">
         <v>3800</v>
       </c>
       <c r="C207" t="s">
@@ -6919,10 +6922,10 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="1">
+      <c r="A208" s="2">
         <v>1340000</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1">
         <v>6700</v>
       </c>
       <c r="C208" t="s">
@@ -6945,10 +6948,10 @@
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="1">
+      <c r="A209" s="2">
         <v>1090000</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1">
         <v>5450</v>
       </c>
       <c r="C209" t="s">
@@ -6971,10 +6974,10 @@
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="1">
+      <c r="A210" s="2">
         <v>920000</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1">
         <v>4600</v>
       </c>
       <c r="C210" t="s">
@@ -6997,10 +7000,10 @@
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="1">
+      <c r="A211" s="2">
         <v>820000</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1">
         <v>4100</v>
       </c>
       <c r="C211" t="s">
@@ -7023,10 +7026,10 @@
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="1">
+      <c r="A212" s="2">
         <v>1170000</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="1">
         <v>5850</v>
       </c>
       <c r="C212" t="s">
@@ -7049,10 +7052,10 @@
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="1">
+      <c r="A213" s="2">
         <v>970000</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="1">
         <v>4850</v>
       </c>
       <c r="C213" t="s">
@@ -7075,10 +7078,10 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="1">
+      <c r="A214" s="2">
         <v>870000</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="1">
         <v>4350</v>
       </c>
       <c r="C214" t="s">
@@ -7101,10 +7104,10 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="1">
+      <c r="A215" s="2">
         <v>750000</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1">
         <v>3750</v>
       </c>
       <c r="C215" t="s">
@@ -7127,10 +7130,10 @@
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="1">
+      <c r="A216" s="2">
         <v>1030000</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="1">
         <v>5150</v>
       </c>
       <c r="C216" t="s">
@@ -7153,10 +7156,10 @@
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="1">
+      <c r="A217" s="2">
         <v>1270000</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="1">
         <v>6350</v>
       </c>
       <c r="C217" t="s">
@@ -7179,10 +7182,10 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="1">
+      <c r="A218" s="2">
         <v>780000</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="1">
         <v>3900</v>
       </c>
       <c r="C218" t="s">
@@ -7205,10 +7208,10 @@
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="1">
+      <c r="A219" s="2">
         <v>1240000</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="1">
         <v>6200</v>
       </c>
       <c r="C219" t="s">
@@ -7231,10 +7234,10 @@
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="1">
+      <c r="A220" s="2">
         <v>1450000</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="1">
         <v>7250</v>
       </c>
       <c r="C220" t="s">
@@ -7257,10 +7260,10 @@
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="1">
+      <c r="A221" s="2">
         <v>1220000</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="1">
         <v>6100</v>
       </c>
       <c r="C221" t="s">
@@ -7283,10 +7286,10 @@
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="1">
+      <c r="A222" s="2">
         <v>1080000</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="1">
         <v>5400</v>
       </c>
       <c r="C222" t="s">
@@ -7309,10 +7312,10 @@
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="1">
+      <c r="A223" s="2">
         <v>760000</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="1">
         <v>3800</v>
       </c>
       <c r="C223" t="s">
@@ -7335,10 +7338,10 @@
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="1">
+      <c r="A224" s="2">
         <v>970000</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="1">
         <v>4850</v>
       </c>
       <c r="C224" t="s">
@@ -7361,10 +7364,10 @@
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="1">
+      <c r="A225" s="2">
         <v>1130000</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="1">
         <v>5650</v>
       </c>
       <c r="C225" t="s">
@@ -7387,10 +7390,10 @@
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="1">
+      <c r="A226" s="2">
         <v>690000</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="1">
         <v>3450</v>
       </c>
       <c r="C226" t="s">
@@ -7413,10 +7416,10 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="1">
+      <c r="A227" s="2">
         <v>1280000</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="1">
         <v>6400</v>
       </c>
       <c r="C227" t="s">
@@ -7439,10 +7442,10 @@
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="1">
+      <c r="A228" s="2">
         <v>740000</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="1">
         <v>3700</v>
       </c>
       <c r="C228" t="s">
@@ -7465,10 +7468,10 @@
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="1">
+      <c r="A229" s="2">
         <v>970000</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="1">
         <v>4850</v>
       </c>
       <c r="C229" t="s">
@@ -7491,10 +7494,10 @@
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="1">
+      <c r="A230" s="2">
         <v>810000</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="1">
         <v>4050</v>
       </c>
       <c r="C230" t="s">
@@ -7517,10 +7520,10 @@
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="1">
+      <c r="A231" s="2">
         <v>1320000</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="1">
         <v>6600</v>
       </c>
       <c r="C231" t="s">
@@ -7543,10 +7546,10 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="1">
+      <c r="A232" s="2">
         <v>890000</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="1">
         <v>4450</v>
       </c>
       <c r="C232" t="s">
@@ -7569,10 +7572,10 @@
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="1">
+      <c r="A233" s="2">
         <v>700000</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="1">
         <v>3500</v>
       </c>
       <c r="C233" t="s">
@@ -7595,10 +7598,10 @@
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="1">
+      <c r="A234" s="2">
         <v>1060000</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="1">
         <v>5300</v>
       </c>
       <c r="C234" t="s">
@@ -7621,10 +7624,10 @@
       </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="1">
+      <c r="A235" s="2">
         <v>730000</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="1">
         <v>3650</v>
       </c>
       <c r="C235" t="s">
@@ -7647,10 +7650,10 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="1">
+      <c r="A236" s="2">
         <v>1210000</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="1">
         <v>6050</v>
       </c>
       <c r="C236" t="s">
@@ -7673,10 +7676,10 @@
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="1">
+      <c r="A237" s="2">
         <v>920000</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="1">
         <v>4600</v>
       </c>
       <c r="C237" t="s">
@@ -7699,10 +7702,10 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="1">
+      <c r="A238" s="2">
         <v>1390000</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="1">
         <v>6950</v>
       </c>
       <c r="C238" t="s">
@@ -7725,10 +7728,10 @@
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="1">
+      <c r="A239" s="2">
         <v>780000</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="1">
         <v>3900</v>
       </c>
       <c r="C239" t="s">
@@ -7751,10 +7754,10 @@
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="1">
+      <c r="A240" s="2">
         <v>1060000</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="1">
         <v>5300</v>
       </c>
       <c r="C240" t="s">
@@ -7777,10 +7780,10 @@
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="1">
+      <c r="A241" s="2">
         <v>1440000</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="1">
         <v>7200</v>
       </c>
       <c r="C241" t="s">
@@ -7803,10 +7806,10 @@
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="1">
+      <c r="A242" s="2">
         <v>500000</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1">
         <v>2500</v>
       </c>
       <c r="C242" t="s">
@@ -7829,10 +7832,10 @@
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="1">
+      <c r="A243" s="2">
         <v>300000</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="1">
         <v>1500</v>
       </c>
       <c r="C243" t="s">
@@ -7855,10 +7858,10 @@
       </c>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244" s="1">
+      <c r="A244" s="2">
         <v>450000</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="1">
         <v>2250</v>
       </c>
       <c r="C244" t="s">
@@ -7881,10 +7884,10 @@
       </c>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" s="1">
+      <c r="A245" s="2">
         <v>280000</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1">
         <v>1400</v>
       </c>
       <c r="C245" t="s">
@@ -7907,10 +7910,10 @@
       </c>
     </row>
     <row r="246" spans="1:8">
-      <c r="A246" s="1">
+      <c r="A246" s="2">
         <v>320000</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="1">
         <v>1600</v>
       </c>
       <c r="C246" t="s">
@@ -7933,10 +7936,10 @@
       </c>
     </row>
     <row r="247" spans="1:8">
-      <c r="A247" s="1">
+      <c r="A247" s="2">
         <v>550000</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="1">
         <v>2750</v>
       </c>
       <c r="C247" t="s">
@@ -7959,10 +7962,10 @@
       </c>
     </row>
     <row r="248" spans="1:8">
-      <c r="A248" s="1">
+      <c r="A248" s="2">
         <v>420000</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="1">
         <v>2100</v>
       </c>
       <c r="C248" t="s">
@@ -7985,10 +7988,10 @@
       </c>
     </row>
     <row r="249" spans="1:8">
-      <c r="A249" s="1">
+      <c r="A249" s="2">
         <v>380000</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="1">
         <v>1900</v>
       </c>
       <c r="C249" t="s">
@@ -8011,10 +8014,10 @@
       </c>
     </row>
     <row r="250" spans="1:8">
-      <c r="A250" s="1">
+      <c r="A250" s="2">
         <v>240000</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="1">
         <v>1200</v>
       </c>
       <c r="C250" t="s">
@@ -8037,10 +8040,10 @@
       </c>
     </row>
     <row r="251" spans="1:8">
-      <c r="A251" s="1">
+      <c r="A251" s="2">
         <v>310000</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="1">
         <v>1550</v>
       </c>
       <c r="C251" t="s">
@@ -8063,10 +8066,10 @@
       </c>
     </row>
     <row r="252" spans="1:8">
-      <c r="A252" s="1">
+      <c r="A252" s="2">
         <v>430000</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="1">
         <v>2150</v>
       </c>
       <c r="C252" t="s">
@@ -8089,10 +8092,10 @@
       </c>
     </row>
     <row r="253" spans="1:8">
-      <c r="A253" s="1">
+      <c r="A253" s="2">
         <v>350000</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="1">
         <v>1750</v>
       </c>
       <c r="C253" t="s">
@@ -8115,10 +8118,10 @@
       </c>
     </row>
     <row r="254" spans="1:8">
-      <c r="A254" s="1">
+      <c r="A254" s="2">
         <v>270000</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="1">
         <v>1350</v>
       </c>
       <c r="C254" t="s">
@@ -8141,10 +8144,10 @@
       </c>
     </row>
     <row r="255" spans="1:8">
-      <c r="A255" s="1">
+      <c r="A255" s="2">
         <v>320000</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="1">
         <v>1600</v>
       </c>
       <c r="C255" t="s">
@@ -8167,10 +8170,10 @@
       </c>
     </row>
     <row r="256" spans="1:8">
-      <c r="A256" s="1">
+      <c r="A256" s="2">
         <v>290000</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="1">
         <v>1450</v>
       </c>
       <c r="C256" t="s">
@@ -8193,10 +8196,10 @@
       </c>
     </row>
     <row r="257" spans="1:8">
-      <c r="A257" s="1">
+      <c r="A257" s="2">
         <v>480000</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="1">
         <v>2400</v>
       </c>
       <c r="C257" t="s">
@@ -8219,10 +8222,10 @@
       </c>
     </row>
     <row r="258" spans="1:8">
-      <c r="A258" s="1">
+      <c r="A258" s="2">
         <v>360000</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="1">
         <v>1800</v>
       </c>
       <c r="C258" t="s">
@@ -8245,10 +8248,10 @@
       </c>
     </row>
     <row r="259" spans="1:8">
-      <c r="A259" s="1">
+      <c r="A259" s="2">
         <v>310000</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="1">
         <v>1550</v>
       </c>
       <c r="C259" t="s">
@@ -8271,10 +8274,10 @@
       </c>
     </row>
     <row r="260" spans="1:8">
-      <c r="A260" s="1">
+      <c r="A260" s="2">
         <v>420000</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="1">
         <v>2100</v>
       </c>
       <c r="C260" t="s">
@@ -8297,10 +8300,10 @@
       </c>
     </row>
     <row r="261" spans="1:8">
-      <c r="A261" s="1">
+      <c r="A261" s="2">
         <v>260000</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="1">
         <v>1300</v>
       </c>
       <c r="C261" t="s">
@@ -8323,10 +8326,10 @@
       </c>
     </row>
     <row r="262" spans="1:8">
-      <c r="A262" s="1">
+      <c r="A262" s="2">
         <v>290000</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="1">
         <v>1450</v>
       </c>
       <c r="C262" t="s">
@@ -8349,10 +8352,10 @@
       </c>
     </row>
     <row r="263" spans="1:8">
-      <c r="A263" s="1">
+      <c r="A263" s="2">
         <v>450000</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="1">
         <v>2250</v>
       </c>
       <c r="C263" t="s">
@@ -8375,10 +8378,10 @@
       </c>
     </row>
     <row r="264" spans="1:8">
-      <c r="A264" s="1">
+      <c r="A264" s="2">
         <v>340000</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="1">
         <v>1700</v>
       </c>
       <c r="C264" t="s">
@@ -8401,10 +8404,10 @@
       </c>
     </row>
     <row r="265" spans="1:8">
-      <c r="A265" s="1">
+      <c r="A265" s="2">
         <v>250000</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="1">
         <v>1250</v>
       </c>
       <c r="C265" t="s">
@@ -8427,10 +8430,10 @@
       </c>
     </row>
     <row r="266" spans="1:8">
-      <c r="A266" s="1">
+      <c r="A266" s="2">
         <v>280000</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="1">
         <v>1400</v>
       </c>
       <c r="C266" t="s">
@@ -8453,10 +8456,10 @@
       </c>
     </row>
     <row r="267" spans="1:8">
-      <c r="A267" s="1">
+      <c r="A267" s="2">
         <v>320000</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="1">
         <v>1600</v>
       </c>
       <c r="C267" t="s">
@@ -8479,10 +8482,10 @@
       </c>
     </row>
     <row r="268" spans="1:8">
-      <c r="A268" s="1">
+      <c r="A268" s="2">
         <v>480000</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="1">
         <v>2400</v>
       </c>
       <c r="C268" t="s">
@@ -8505,10 +8508,10 @@
       </c>
     </row>
     <row r="269" spans="1:8">
-      <c r="A269" s="1">
+      <c r="A269" s="2">
         <v>370000</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="1">
         <v>1850</v>
       </c>
       <c r="C269" t="s">
@@ -8531,10 +8534,10 @@
       </c>
     </row>
     <row r="270" spans="1:8">
-      <c r="A270" s="1">
+      <c r="A270" s="2">
         <v>420000</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="1">
         <v>2100</v>
       </c>
       <c r="C270" t="s">
@@ -8557,10 +8560,10 @@
       </c>
     </row>
     <row r="271" spans="1:8">
-      <c r="A271" s="1">
+      <c r="A271" s="2">
         <v>380000</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="1">
         <v>1900</v>
       </c>
       <c r="C271" t="s">
@@ -8583,10 +8586,10 @@
       </c>
     </row>
     <row r="272" spans="1:8">
-      <c r="A272" s="1">
+      <c r="A272" s="2">
         <v>290000</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="1">
         <v>1450</v>
       </c>
       <c r="C272" t="s">
@@ -8609,10 +8612,10 @@
       </c>
     </row>
     <row r="273" spans="1:8">
-      <c r="A273" s="1">
+      <c r="A273" s="2">
         <v>350000</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="1">
         <v>1750</v>
       </c>
       <c r="C273" t="s">
@@ -8635,10 +8638,10 @@
       </c>
     </row>
     <row r="274" spans="1:8">
-      <c r="A274" s="1">
+      <c r="A274" s="2">
         <v>270000</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="1">
         <v>1350</v>
       </c>
       <c r="C274" t="s">
@@ -8661,10 +8664,10 @@
       </c>
     </row>
     <row r="275" spans="1:8">
-      <c r="A275" s="1">
+      <c r="A275" s="2">
         <v>310000</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="1">
         <v>1550</v>
       </c>
       <c r="C275" t="s">
@@ -8687,10 +8690,10 @@
       </c>
     </row>
     <row r="276" spans="1:8">
-      <c r="A276" s="1">
+      <c r="A276" s="2">
         <v>430000</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="1">
         <v>2150</v>
       </c>
       <c r="C276" t="s">
@@ -8713,10 +8716,10 @@
       </c>
     </row>
     <row r="277" spans="1:8">
-      <c r="A277" s="1">
+      <c r="A277" s="2">
         <v>460000</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="1">
         <v>2300</v>
       </c>
       <c r="C277" t="s">
@@ -8739,10 +8742,10 @@
       </c>
     </row>
     <row r="278" spans="1:8">
-      <c r="A278" s="1">
+      <c r="A278" s="2">
         <v>300000</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="1">
         <v>1500</v>
       </c>
       <c r="C278" t="s">
@@ -8765,10 +8768,10 @@
       </c>
     </row>
     <row r="279" spans="1:8">
-      <c r="A279" s="1">
+      <c r="A279" s="2">
         <v>340000</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="1">
         <v>1700</v>
       </c>
       <c r="C279" t="s">
@@ -8791,10 +8794,10 @@
       </c>
     </row>
     <row r="280" spans="1:8">
-      <c r="A280" s="1">
+      <c r="A280" s="2">
         <v>250000</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="1">
         <v>1250</v>
       </c>
       <c r="C280" t="s">
@@ -8817,10 +8820,10 @@
       </c>
     </row>
     <row r="281" spans="1:8">
-      <c r="A281" s="1">
+      <c r="A281" s="2">
         <v>280000</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="1">
         <v>1400</v>
       </c>
       <c r="C281" t="s">
@@ -8843,10 +8846,10 @@
       </c>
     </row>
     <row r="282" spans="1:8">
-      <c r="A282" s="1">
+      <c r="A282" s="2">
         <v>380000</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="1">
         <v>1900</v>
       </c>
       <c r="C282" t="s">
@@ -8869,10 +8872,10 @@
       </c>
     </row>
     <row r="283" spans="1:8">
-      <c r="A283" s="1">
+      <c r="A283" s="2">
         <v>360000</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="1">
         <v>1800</v>
       </c>
       <c r="C283" t="s">
@@ -8895,10 +8898,10 @@
       </c>
     </row>
     <row r="284" spans="1:8">
-      <c r="A284" s="1">
+      <c r="A284" s="2">
         <v>300000</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="1">
         <v>1500</v>
       </c>
       <c r="C284" t="s">
@@ -8921,10 +8924,10 @@
       </c>
     </row>
     <row r="285" spans="1:8">
-      <c r="A285" s="1">
+      <c r="A285" s="2">
         <v>430000</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="1">
         <v>2150</v>
       </c>
       <c r="C285" t="s">
@@ -8947,10 +8950,10 @@
       </c>
     </row>
     <row r="286" spans="1:8">
-      <c r="A286" s="1">
+      <c r="A286" s="2">
         <v>450000</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="1">
         <v>2250</v>
       </c>
       <c r="C286" t="s">
@@ -8973,10 +8976,10 @@
       </c>
     </row>
     <row r="287" spans="1:8">
-      <c r="A287" s="1">
+      <c r="A287" s="2">
         <v>320000</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="1">
         <v>1600</v>
       </c>
       <c r="C287" t="s">
@@ -8999,10 +9002,10 @@
       </c>
     </row>
     <row r="288" spans="1:8">
-      <c r="A288" s="1">
+      <c r="A288" s="2">
         <v>410000</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="1">
         <v>2050</v>
       </c>
       <c r="C288" t="s">
@@ -9025,10 +9028,10 @@
       </c>
     </row>
     <row r="289" spans="1:8">
-      <c r="A289" s="1">
+      <c r="A289" s="2">
         <v>390000</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="1">
         <v>1950</v>
       </c>
       <c r="C289" t="s">
@@ -9051,10 +9054,10 @@
       </c>
     </row>
     <row r="290" spans="1:8">
-      <c r="A290" s="1">
+      <c r="A290" s="2">
         <v>260000</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="1">
         <v>1300</v>
       </c>
       <c r="C290" t="s">
@@ -9077,10 +9080,10 @@
       </c>
     </row>
     <row r="291" spans="1:8">
-      <c r="A291" s="1">
+      <c r="A291" s="2">
         <v>480000</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="1">
         <v>2400</v>
       </c>
       <c r="C291" t="s">
@@ -9103,10 +9106,10 @@
       </c>
     </row>
     <row r="292" spans="1:8">
-      <c r="A292" s="1">
+      <c r="A292" s="2">
         <v>340000</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="1">
         <v>1700</v>
       </c>
       <c r="C292" t="s">
@@ -9129,10 +9132,10 @@
       </c>
     </row>
     <row r="293" spans="1:8">
-      <c r="A293" s="1">
+      <c r="A293" s="2">
         <v>370000</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="1">
         <v>1850</v>
       </c>
       <c r="C293" t="s">
@@ -9155,10 +9158,10 @@
       </c>
     </row>
     <row r="294" spans="1:8">
-      <c r="A294" s="1">
+      <c r="A294" s="2">
         <v>330000</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="1">
         <v>1650</v>
       </c>
       <c r="C294" t="s">
@@ -9181,10 +9184,10 @@
       </c>
     </row>
     <row r="295" spans="1:8">
-      <c r="A295" s="1">
+      <c r="A295" s="2">
         <v>290000</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="1">
         <v>1450</v>
       </c>
       <c r="C295" t="s">
@@ -9207,10 +9210,10 @@
       </c>
     </row>
     <row r="296" spans="1:8">
-      <c r="A296" s="1">
+      <c r="A296" s="2">
         <v>390000</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="1">
         <v>1950</v>
       </c>
       <c r="C296" t="s">
@@ -9233,10 +9236,10 @@
       </c>
     </row>
     <row r="297" spans="1:8">
-      <c r="A297" s="1">
+      <c r="A297" s="2">
         <v>480000</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="1">
         <v>2400</v>
       </c>
       <c r="C297" t="s">
@@ -9259,10 +9262,10 @@
       </c>
     </row>
     <row r="298" spans="1:8">
-      <c r="A298" s="1">
+      <c r="A298" s="2">
         <v>310000</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="1">
         <v>1550</v>
       </c>
       <c r="C298" t="s">
@@ -9285,10 +9288,10 @@
       </c>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="1">
+      <c r="A299" s="2">
         <v>350000</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="1">
         <v>1750</v>
       </c>
       <c r="C299" t="s">
@@ -9311,10 +9314,10 @@
       </c>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="1">
+      <c r="A300" s="2">
         <v>330000</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="1">
         <v>1650</v>
       </c>
       <c r="C300" t="s">
@@ -9337,10 +9340,10 @@
       </c>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" s="1">
+      <c r="A301" s="2">
         <v>460000</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="1">
         <v>2300</v>
       </c>
       <c r="C301" t="s">
@@ -9363,10 +9366,10 @@
       </c>
     </row>
     <row r="302" spans="1:8">
-      <c r="A302" s="1">
+      <c r="A302" s="2">
         <v>270000</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="1">
         <v>1350</v>
       </c>
       <c r="C302" t="s">
@@ -9389,10 +9392,10 @@
       </c>
     </row>
     <row r="303" spans="1:8">
-      <c r="A303" s="1">
+      <c r="A303" s="2">
         <v>450000</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="1">
         <v>2250</v>
       </c>
       <c r="C303" t="s">
@@ -9415,10 +9418,10 @@
       </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" s="1">
+      <c r="A304" s="2">
         <v>300000</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="1">
         <v>1500</v>
       </c>
       <c r="C304" t="s">
@@ -9441,10 +9444,10 @@
       </c>
     </row>
     <row r="305" spans="1:8">
-      <c r="A305" s="1">
+      <c r="A305" s="2">
         <v>380000</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="1">
         <v>1900</v>
       </c>
       <c r="C305" t="s">
@@ -9467,10 +9470,10 @@
       </c>
     </row>
     <row r="306" spans="1:8">
-      <c r="A306" s="1">
+      <c r="A306" s="2">
         <v>370000</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="1">
         <v>1850</v>
       </c>
       <c r="C306" t="s">
@@ -9493,10 +9496,10 @@
       </c>
     </row>
     <row r="307" spans="1:8">
-      <c r="A307" s="1">
+      <c r="A307" s="2">
         <v>320000</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="1">
         <v>1600</v>
       </c>
       <c r="C307" t="s">
@@ -9519,10 +9522,10 @@
       </c>
     </row>
     <row r="308" spans="1:8">
-      <c r="A308" s="1">
+      <c r="A308" s="2">
         <v>390000</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="1">
         <v>1950</v>
       </c>
       <c r="C308" t="s">
@@ -9545,10 +9548,10 @@
       </c>
     </row>
     <row r="309" spans="1:8">
-      <c r="A309" s="1">
+      <c r="A309" s="2">
         <v>340000</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="1">
         <v>1700</v>
       </c>
       <c r="C309" t="s">
@@ -9571,10 +9574,10 @@
       </c>
     </row>
     <row r="310" spans="1:8">
-      <c r="A310" s="1">
+      <c r="A310" s="2">
         <v>250000</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="1">
         <v>1250</v>
       </c>
       <c r="C310" t="s">
@@ -9597,10 +9600,10 @@
       </c>
     </row>
     <row r="311" spans="1:8">
-      <c r="A311" s="1">
+      <c r="A311" s="2">
         <v>470000</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="1">
         <v>2350</v>
       </c>
       <c r="C311" t="s">
@@ -9623,10 +9626,10 @@
       </c>
     </row>
     <row r="312" spans="1:8">
-      <c r="A312" s="1">
+      <c r="A312" s="2">
         <v>460000</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="1">
         <v>2300</v>
       </c>
       <c r="C312" t="s">
@@ -9649,10 +9652,10 @@
       </c>
     </row>
     <row r="313" spans="1:8">
-      <c r="A313" s="1">
+      <c r="A313" s="2">
         <v>310000</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="1">
         <v>1550</v>
       </c>
       <c r="C313" t="s">
@@ -9675,10 +9678,10 @@
       </c>
     </row>
     <row r="314" spans="1:8">
-      <c r="A314" s="1">
+      <c r="A314" s="2">
         <v>380000</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="1">
         <v>1900</v>
       </c>
       <c r="C314" t="s">
@@ -9701,10 +9704,10 @@
       </c>
     </row>
     <row r="315" spans="1:8">
-      <c r="A315" s="1">
+      <c r="A315" s="2">
         <v>320000</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="1">
         <v>1600</v>
       </c>
       <c r="C315" t="s">
@@ -9727,10 +9730,10 @@
       </c>
     </row>
     <row r="316" spans="1:8">
-      <c r="A316" s="1">
+      <c r="A316" s="2">
         <v>260000</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="1">
         <v>1300</v>
       </c>
       <c r="C316" t="s">
@@ -9753,10 +9756,10 @@
       </c>
     </row>
     <row r="317" spans="1:8">
-      <c r="A317" s="1">
+      <c r="A317" s="2">
         <v>360000</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="1">
         <v>1800</v>
       </c>
       <c r="C317" t="s">
@@ -9779,10 +9782,10 @@
       </c>
     </row>
     <row r="318" spans="1:8">
-      <c r="A318" s="1">
+      <c r="A318" s="2">
         <v>290000</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="1">
         <v>1450</v>
       </c>
       <c r="C318" t="s">
@@ -9805,10 +9808,10 @@
       </c>
     </row>
     <row r="319" spans="1:8">
-      <c r="A319" s="1">
+      <c r="A319" s="2">
         <v>250000</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="1">
         <v>1250</v>
       </c>
       <c r="C319" t="s">
@@ -9831,10 +9834,10 @@
       </c>
     </row>
     <row r="320" spans="1:8">
-      <c r="A320" s="1">
+      <c r="A320" s="2">
         <v>440000</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="1">
         <v>2200</v>
       </c>
       <c r="C320" t="s">
@@ -9857,10 +9860,10 @@
       </c>
     </row>
     <row r="321" spans="1:8">
-      <c r="A321" s="1">
+      <c r="A321" s="2">
         <v>460000</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="1">
         <v>2300</v>
       </c>
       <c r="C321" t="s">
@@ -9883,10 +9886,10 @@
       </c>
     </row>
     <row r="322" spans="1:8">
-      <c r="A322" s="1">
+      <c r="A322" s="2">
         <v>400000</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="1">
         <v>2000</v>
       </c>
       <c r="C322" t="s">
@@ -9909,10 +9912,10 @@
       </c>
     </row>
     <row r="323" spans="1:8">
-      <c r="A323" s="1">
+      <c r="A323" s="2">
         <v>430000</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="1">
         <v>2150</v>
       </c>
       <c r="C323" t="s">
@@ -9935,10 +9938,10 @@
       </c>
     </row>
     <row r="324" spans="1:8">
-      <c r="A324" s="1">
+      <c r="A324" s="2">
         <v>470000</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="1">
         <v>2350</v>
       </c>
       <c r="C324" t="s">
@@ -9961,10 +9964,10 @@
       </c>
     </row>
     <row r="325" spans="1:8">
-      <c r="A325" s="1">
+      <c r="A325" s="2">
         <v>470000</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="1">
         <v>2350</v>
       </c>
       <c r="C325" t="s">
@@ -9987,10 +9990,10 @@
       </c>
     </row>
     <row r="326" spans="1:8">
-      <c r="A326" s="1">
+      <c r="A326" s="2">
         <v>380000</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="1">
         <v>1900</v>
       </c>
       <c r="C326" t="s">
@@ -10013,14 +10016,14 @@
       </c>
     </row>
     <row r="327" spans="1:8">
-      <c r="A327" s="1">
+      <c r="A327" s="2">
         <v>360000</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="1">
         <v>1800</v>
       </c>
       <c r="C327" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D327" t="s">
         <v>188</v>
@@ -10039,10 +10042,10 @@
       </c>
     </row>
     <row r="328" spans="1:8">
-      <c r="A328" s="1">
+      <c r="A328" s="2">
         <v>350000</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="1">
         <v>1750</v>
       </c>
       <c r="C328" t="s">
@@ -10065,10 +10068,10 @@
       </c>
     </row>
     <row r="329" spans="1:8">
-      <c r="A329" s="1">
+      <c r="A329" s="2">
         <v>440000</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="1">
         <v>2200</v>
       </c>
       <c r="C329" t="s">
@@ -10091,10 +10094,10 @@
       </c>
     </row>
     <row r="330" spans="1:8">
-      <c r="A330" s="1">
+      <c r="A330" s="2">
         <v>300000</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="1">
         <v>1500</v>
       </c>
       <c r="C330" t="s">
@@ -10117,10 +10120,10 @@
       </c>
     </row>
     <row r="331" spans="1:8">
-      <c r="A331" s="1">
+      <c r="A331" s="2">
         <v>330000</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="1">
         <v>1650</v>
       </c>
       <c r="C331" t="s">
@@ -10143,10 +10146,10 @@
       </c>
     </row>
     <row r="332" spans="1:8">
-      <c r="A332" s="1">
+      <c r="A332" s="2">
         <v>300000</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="1">
         <v>1500</v>
       </c>
       <c r="C332" t="s">
@@ -10169,10 +10172,10 @@
       </c>
     </row>
     <row r="333" spans="1:8">
-      <c r="A333" s="1">
+      <c r="A333" s="2">
         <v>340000</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="1">
         <v>1700</v>
       </c>
       <c r="C333" t="s">
@@ -10195,10 +10198,10 @@
       </c>
     </row>
     <row r="334" spans="1:8">
-      <c r="A334" s="1">
+      <c r="A334" s="2">
         <v>250000</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="1">
         <v>1250</v>
       </c>
       <c r="C334" t="s">
@@ -10221,10 +10224,10 @@
       </c>
     </row>
     <row r="335" spans="1:8">
-      <c r="A335" s="1">
+      <c r="A335" s="2">
         <v>440000</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="1">
         <v>2200</v>
       </c>
       <c r="C335" t="s">
@@ -10247,10 +10250,10 @@
       </c>
     </row>
     <row r="336" spans="1:8">
-      <c r="A336" s="1">
+      <c r="A336" s="2">
         <v>460000</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="1">
         <v>2300</v>
       </c>
       <c r="C336" t="s">
@@ -10273,10 +10276,10 @@
       </c>
     </row>
     <row r="337" spans="1:8">
-      <c r="A337" s="1">
+      <c r="A337" s="2">
         <v>320000</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="1">
         <v>1600</v>
       </c>
       <c r="C337" t="s">
@@ -10299,10 +10302,10 @@
       </c>
     </row>
     <row r="338" spans="1:8">
-      <c r="A338" s="1">
+      <c r="A338" s="2">
         <v>390000</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="1">
         <v>1950</v>
       </c>
       <c r="C338" t="s">
@@ -10325,10 +10328,10 @@
       </c>
     </row>
     <row r="339" spans="1:8">
-      <c r="A339" s="1">
+      <c r="A339" s="2">
         <v>390000</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="1">
         <v>1950</v>
       </c>
       <c r="C339" t="s">
@@ -10351,10 +10354,10 @@
       </c>
     </row>
     <row r="340" spans="1:8">
-      <c r="A340" s="1">
+      <c r="A340" s="2">
         <v>350000</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="1">
         <v>1750</v>
       </c>
       <c r="C340" t="s">
@@ -10377,10 +10380,10 @@
       </c>
     </row>
     <row r="341" spans="1:8">
-      <c r="A341" s="1">
+      <c r="A341" s="2">
         <v>260000</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="1">
         <v>1300</v>
       </c>
       <c r="C341" t="s">
@@ -10403,10 +10406,10 @@
       </c>
     </row>
     <row r="342" spans="1:8">
-      <c r="A342" s="1">
+      <c r="A342" s="2">
         <v>370000</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="1">
         <v>1850</v>
       </c>
       <c r="C342" t="s">
@@ -10429,10 +10432,10 @@
       </c>
     </row>
     <row r="343" spans="1:8">
-      <c r="A343" s="1">
+      <c r="A343" s="2">
         <v>480000</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="1">
         <v>2400</v>
       </c>
       <c r="C343" t="s">
@@ -10455,10 +10458,10 @@
       </c>
     </row>
     <row r="344" spans="1:8">
-      <c r="A344" s="1">
+      <c r="A344" s="2">
         <v>330000</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="1">
         <v>1650</v>
       </c>
       <c r="C344" t="s">
@@ -10481,10 +10484,10 @@
       </c>
     </row>
     <row r="345" spans="1:8">
-      <c r="A345" s="1">
+      <c r="A345" s="2">
         <v>480000</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="1">
         <v>2400</v>
       </c>
       <c r="C345" t="s">
@@ -10507,10 +10510,10 @@
       </c>
     </row>
     <row r="346" spans="1:8">
-      <c r="A346" s="1">
+      <c r="A346" s="2">
         <v>350000</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="1">
         <v>1750</v>
       </c>
       <c r="C346" t="s">
@@ -10533,10 +10536,10 @@
       </c>
     </row>
     <row r="347" spans="1:8">
-      <c r="A347" s="1">
+      <c r="A347" s="2">
         <v>370000</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="1">
         <v>1850</v>
       </c>
       <c r="C347" t="s">
@@ -10559,10 +10562,10 @@
       </c>
     </row>
     <row r="348" spans="1:8">
-      <c r="A348" s="1">
+      <c r="A348" s="2">
         <v>430000</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="1">
         <v>2150</v>
       </c>
       <c r="C348" t="s">
@@ -10585,10 +10588,10 @@
       </c>
     </row>
     <row r="349" spans="1:8">
-      <c r="A349" s="1">
+      <c r="A349" s="2">
         <v>450000</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="1">
         <v>2250</v>
       </c>
       <c r="C349" t="s">
@@ -10611,10 +10614,10 @@
       </c>
     </row>
     <row r="350" spans="1:8">
-      <c r="A350" s="1">
+      <c r="A350" s="2">
         <v>310000</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="1">
         <v>1550</v>
       </c>
       <c r="C350" t="s">
@@ -10637,10 +10640,10 @@
       </c>
     </row>
     <row r="351" spans="1:8">
-      <c r="A351" s="1">
+      <c r="A351" s="2">
         <v>410000</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="1">
         <v>2050</v>
       </c>
       <c r="C351" t="s">
@@ -10663,10 +10666,10 @@
       </c>
     </row>
     <row r="352" spans="1:8">
-      <c r="A352" s="1">
+      <c r="A352" s="2">
         <v>390000</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="1">
         <v>1950</v>
       </c>
       <c r="C352" t="s">
@@ -10689,10 +10692,10 @@
       </c>
     </row>
     <row r="353" spans="1:8">
-      <c r="A353" s="1">
+      <c r="A353" s="2">
         <v>480000</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="1">
         <v>2400</v>
       </c>
       <c r="C353" t="s">
@@ -10715,10 +10718,10 @@
       </c>
     </row>
     <row r="354" spans="1:8">
-      <c r="A354" s="1">
+      <c r="A354" s="2">
         <v>330000</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="1">
         <v>1650</v>
       </c>
       <c r="C354" t="s">
@@ -10731,20 +10734,20 @@
         <v>22</v>
       </c>
       <c r="F354" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G354" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H354" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="355" spans="1:8">
-      <c r="A355" s="1">
+      <c r="A355" s="2">
         <v>430000</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="1">
         <v>2150</v>
       </c>
       <c r="C355" t="s">
@@ -10767,10 +10770,10 @@
       </c>
     </row>
     <row r="356" spans="1:8">
-      <c r="A356" s="1">
+      <c r="A356" s="2">
         <v>310000</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="1">
         <v>1550</v>
       </c>
       <c r="C356" t="s">
@@ -10793,10 +10796,10 @@
       </c>
     </row>
     <row r="357" spans="1:8">
-      <c r="A357" s="1">
+      <c r="A357" s="2">
         <v>350000</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="1">
         <v>1750</v>
       </c>
       <c r="C357" t="s">
@@ -10819,10 +10822,10 @@
       </c>
     </row>
     <row r="358" spans="1:8">
-      <c r="A358" s="1">
+      <c r="A358" s="2">
         <v>480000</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="1">
         <v>2400</v>
       </c>
       <c r="C358" t="s">
@@ -10845,10 +10848,10 @@
       </c>
     </row>
     <row r="359" spans="1:8">
-      <c r="A359" s="1">
+      <c r="A359" s="2">
         <v>460000</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="1">
         <v>2300</v>
       </c>
       <c r="C359" t="s">
@@ -10871,10 +10874,10 @@
       </c>
     </row>
     <row r="360" spans="1:8">
-      <c r="A360" s="1">
+      <c r="A360" s="2">
         <v>400000</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="1">
         <v>2000</v>
       </c>
       <c r="C360" t="s">
@@ -10897,10 +10900,10 @@
       </c>
     </row>
     <row r="361" spans="1:8">
-      <c r="A361" s="1">
+      <c r="A361" s="2">
         <v>480000</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="1">
         <v>2400</v>
       </c>
       <c r="C361" t="s">
@@ -10923,10 +10926,10 @@
       </c>
     </row>
     <row r="362" spans="1:8">
-      <c r="A362" s="1">
+      <c r="A362" s="2">
         <v>320000</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="1">
         <v>1600</v>
       </c>
       <c r="C362" t="s">
@@ -10949,10 +10952,10 @@
       </c>
     </row>
     <row r="363" spans="1:8">
-      <c r="A363" s="1">
+      <c r="A363" s="2">
         <v>460000</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="1">
         <v>2300</v>
       </c>
       <c r="C363" t="s">
@@ -10975,10 +10978,10 @@
       </c>
     </row>
     <row r="364" spans="1:8">
-      <c r="A364" s="1">
+      <c r="A364" s="2">
         <v>350000</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="1">
         <v>1750</v>
       </c>
       <c r="C364" t="s">
@@ -11001,10 +11004,10 @@
       </c>
     </row>
     <row r="365" spans="1:8">
-      <c r="A365" s="1">
+      <c r="A365" s="2">
         <v>380000</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="1">
         <v>1900</v>
       </c>
       <c r="C365" t="s">
@@ -11027,10 +11030,10 @@
       </c>
     </row>
     <row r="366" spans="1:8">
-      <c r="A366" s="1">
+      <c r="A366" s="2">
         <v>440000</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="1">
         <v>2200</v>
       </c>
       <c r="C366" t="s">
@@ -11053,10 +11056,10 @@
       </c>
     </row>
     <row r="367" spans="1:8">
-      <c r="A367" s="1">
+      <c r="A367" s="2">
         <v>390000</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="1">
         <v>1950</v>
       </c>
       <c r="C367" t="s">
@@ -11079,10 +11082,10 @@
       </c>
     </row>
     <row r="368" spans="1:8">
-      <c r="A368" s="1">
+      <c r="A368" s="2">
         <v>350000</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="1">
         <v>1750</v>
       </c>
       <c r="C368" t="s">
@@ -11105,10 +11108,10 @@
       </c>
     </row>
     <row r="369" spans="1:8">
-      <c r="A369" s="1">
+      <c r="A369" s="2">
         <v>340000</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="1">
         <v>1700</v>
       </c>
       <c r="C369" t="s">
@@ -11131,10 +11134,10 @@
       </c>
     </row>
     <row r="370" spans="1:8">
-      <c r="A370" s="1">
+      <c r="A370" s="2">
         <v>480000</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="1">
         <v>2400</v>
       </c>
       <c r="C370" t="s">
@@ -11157,10 +11160,10 @@
       </c>
     </row>
     <row r="371" spans="1:8">
-      <c r="A371" s="1">
+      <c r="A371" s="2">
         <v>330000</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="1">
         <v>1650</v>
       </c>
       <c r="C371" t="s">
@@ -11183,10 +11186,10 @@
       </c>
     </row>
     <row r="372" spans="1:8">
-      <c r="A372" s="1">
+      <c r="A372" s="2">
         <v>300000</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="1">
         <v>1500</v>
       </c>
       <c r="C372" t="s">
@@ -11205,14 +11208,14 @@
         <v>15</v>
       </c>
       <c r="H372" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="373" spans="1:8">
-      <c r="A373" s="1">
+      <c r="A373" s="2">
         <v>380000</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="1">
         <v>1900</v>
       </c>
       <c r="C373" t="s">
@@ -11235,10 +11238,10 @@
       </c>
     </row>
     <row r="374" spans="1:8">
-      <c r="A374" s="1">
+      <c r="A374" s="2">
         <v>250000</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="1">
         <v>1250</v>
       </c>
       <c r="C374" t="s">
@@ -11261,10 +11264,10 @@
       </c>
     </row>
     <row r="375" spans="1:8">
-      <c r="A375" s="1">
+      <c r="A375" s="2">
         <v>480000</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="1">
         <v>2400</v>
       </c>
       <c r="C375" t="s">
@@ -11287,10 +11290,10 @@
       </c>
     </row>
     <row r="376" spans="1:8">
-      <c r="A376" s="1">
+      <c r="A376" s="2">
         <v>460000</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="1">
         <v>2300</v>
       </c>
       <c r="C376" t="s">
@@ -11313,10 +11316,10 @@
       </c>
     </row>
     <row r="377" spans="1:8">
-      <c r="A377" s="1">
+      <c r="A377" s="2">
         <v>480000</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="1">
         <v>2400</v>
       </c>
       <c r="C377" t="s">
@@ -11339,10 +11342,10 @@
       </c>
     </row>
     <row r="378" spans="1:8">
-      <c r="A378" s="1">
+      <c r="A378" s="2">
         <v>430000</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="1">
         <v>2150</v>
       </c>
       <c r="C378" t="s">
@@ -11365,10 +11368,10 @@
       </c>
     </row>
     <row r="379" spans="1:8">
-      <c r="A379" s="1">
+      <c r="A379" s="2">
         <v>440000</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="1">
         <v>2200</v>
       </c>
       <c r="C379" t="s">
@@ -11391,10 +11394,10 @@
       </c>
     </row>
     <row r="380" spans="1:8">
-      <c r="A380" s="1">
+      <c r="A380" s="2">
         <v>480000</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="1">
         <v>2400</v>
       </c>
       <c r="C380" t="s">
@@ -11417,10 +11420,10 @@
       </c>
     </row>
     <row r="381" spans="1:8">
-      <c r="A381" s="1">
+      <c r="A381" s="2">
         <v>380000</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="1">
         <v>1900</v>
       </c>
       <c r="C381" t="s">
@@ -11443,10 +11446,10 @@
       </c>
     </row>
     <row r="382" spans="1:8">
-      <c r="A382" s="1">
+      <c r="A382" s="2">
         <v>320000</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="1">
         <v>1600</v>
       </c>
       <c r="C382" t="s">
@@ -11469,10 +11472,10 @@
       </c>
     </row>
     <row r="383" spans="1:8">
-      <c r="A383" s="1">
+      <c r="A383" s="2">
         <v>400000</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="1">
         <v>2000</v>
       </c>
       <c r="C383" t="s">
@@ -11495,10 +11498,10 @@
       </c>
     </row>
     <row r="384" spans="1:8">
-      <c r="A384" s="1">
+      <c r="A384" s="2">
         <v>390000</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="1">
         <v>1950</v>
       </c>
       <c r="C384" t="s">
@@ -11521,10 +11524,10 @@
       </c>
     </row>
     <row r="385" spans="1:8">
-      <c r="A385" s="1">
+      <c r="A385" s="2">
         <v>440000</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="1">
         <v>2200</v>
       </c>
       <c r="C385" t="s">
@@ -11547,10 +11550,10 @@
       </c>
     </row>
     <row r="386" spans="1:8">
-      <c r="A386" s="1">
+      <c r="A386" s="2">
         <v>460000</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="1">
         <v>2300</v>
       </c>
       <c r="C386" t="s">
@@ -11573,10 +11576,10 @@
       </c>
     </row>
     <row r="387" spans="1:8">
-      <c r="A387" s="1">
+      <c r="A387" s="2">
         <v>360000</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="1">
         <v>1800</v>
       </c>
       <c r="C387" t="s">
@@ -11599,10 +11602,10 @@
       </c>
     </row>
     <row r="388" spans="1:8">
-      <c r="A388" s="1">
+      <c r="A388" s="2">
         <v>480000</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="1">
         <v>2400</v>
       </c>
       <c r="C388" t="s">
@@ -11625,10 +11628,10 @@
       </c>
     </row>
     <row r="389" spans="1:8">
-      <c r="A389" s="1">
+      <c r="A389" s="2">
         <v>420000</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="1">
         <v>2100</v>
       </c>
       <c r="C389" t="s">
@@ -11651,10 +11654,10 @@
       </c>
     </row>
     <row r="390" spans="1:8">
-      <c r="A390" s="1">
+      <c r="A390" s="2">
         <v>400000</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="1">
         <v>2000</v>
       </c>
       <c r="C390" t="s">
@@ -11677,10 +11680,10 @@
       </c>
     </row>
     <row r="391" spans="1:8">
-      <c r="A391" s="1">
+      <c r="A391" s="2">
         <v>360000</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="1">
         <v>1800</v>
       </c>
       <c r="C391" t="s">
@@ -11703,10 +11706,10 @@
       </c>
     </row>
     <row r="392" spans="1:8">
-      <c r="A392" s="1">
+      <c r="A392" s="2">
         <v>500000</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="1">
         <v>2500</v>
       </c>
       <c r="C392" t="s">
@@ -11729,10 +11732,10 @@
       </c>
     </row>
     <row r="393" spans="1:8">
-      <c r="A393" s="1">
+      <c r="A393" s="2">
         <v>440000</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="1">
         <v>2200</v>
       </c>
       <c r="C393" t="s">
@@ -11755,10 +11758,10 @@
       </c>
     </row>
     <row r="394" spans="1:8">
-      <c r="A394" s="1">
+      <c r="A394" s="2">
         <v>490000</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="1">
         <v>2450</v>
       </c>
       <c r="C394" t="s">
@@ -11781,10 +11784,10 @@
       </c>
     </row>
     <row r="395" spans="1:8">
-      <c r="A395" s="1">
+      <c r="A395" s="2">
         <v>410000</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="1">
         <v>2050</v>
       </c>
       <c r="C395" t="s">
@@ -11807,10 +11810,10 @@
       </c>
     </row>
     <row r="396" spans="1:8">
-      <c r="A396" s="1">
+      <c r="A396" s="2">
         <v>350000</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="1">
         <v>1750</v>
       </c>
       <c r="C396" t="s">
@@ -11833,10 +11836,10 @@
       </c>
     </row>
     <row r="397" spans="1:8">
-      <c r="A397" s="1">
+      <c r="A397" s="2">
         <v>440000</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="1">
         <v>2200</v>
       </c>
       <c r="C397" t="s">
@@ -11859,10 +11862,10 @@
       </c>
     </row>
     <row r="398" spans="1:8">
-      <c r="A398" s="1">
+      <c r="A398" s="2">
         <v>480000</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="1">
         <v>2400</v>
       </c>
       <c r="C398" t="s">
@@ -11885,10 +11888,10 @@
       </c>
     </row>
     <row r="399" spans="1:8">
-      <c r="A399" s="1">
+      <c r="A399" s="2">
         <v>460000</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="1">
         <v>2300</v>
       </c>
       <c r="C399" t="s">
@@ -11911,10 +11914,10 @@
       </c>
     </row>
     <row r="400" spans="1:8">
-      <c r="A400" s="1">
+      <c r="A400" s="2">
         <v>400000</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="1">
         <v>2000</v>
       </c>
       <c r="C400" t="s">
@@ -11937,10 +11940,10 @@
       </c>
     </row>
     <row r="401" spans="1:8">
-      <c r="A401" s="1">
+      <c r="A401" s="2">
         <v>420000</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="1">
         <v>2100</v>
       </c>
       <c r="C401" t="s">
@@ -11963,10 +11966,10 @@
       </c>
     </row>
     <row r="402" spans="1:8">
-      <c r="A402" s="1">
+      <c r="A402" s="2">
         <v>500000</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="1">
         <v>2500</v>
       </c>
       <c r="C402" t="s">
@@ -11989,10 +11992,10 @@
       </c>
     </row>
     <row r="403" spans="1:8">
-      <c r="A403" s="1">
+      <c r="A403" s="2">
         <v>460000</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="1">
         <v>2300</v>
       </c>
       <c r="C403" t="s">
@@ -12015,10 +12018,10 @@
       </c>
     </row>
     <row r="404" spans="1:8">
-      <c r="A404" s="1">
+      <c r="A404" s="2">
         <v>450000</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="1">
         <v>2250</v>
       </c>
       <c r="C404" t="s">
@@ -12041,10 +12044,10 @@
       </c>
     </row>
     <row r="405" spans="1:8">
-      <c r="A405" s="1">
+      <c r="A405" s="2">
         <v>380000</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="1">
         <v>1900</v>
       </c>
       <c r="C405" t="s">
@@ -12067,10 +12070,10 @@
       </c>
     </row>
     <row r="406" spans="1:8">
-      <c r="A406" s="1">
+      <c r="A406" s="2">
         <v>540000</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="1">
         <v>2700</v>
       </c>
       <c r="C406" t="s">
@@ -12093,10 +12096,10 @@
       </c>
     </row>
     <row r="407" spans="1:8">
-      <c r="A407" s="1">
+      <c r="A407" s="2">
         <v>490000</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="1">
         <v>2450</v>
       </c>
       <c r="C407" t="s">
@@ -12119,10 +12122,10 @@
       </c>
     </row>
     <row r="408" spans="1:8">
-      <c r="A408" s="1">
+      <c r="A408" s="2">
         <v>490000</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="1">
         <v>2450</v>
       </c>
       <c r="C408" t="s">
@@ -12145,10 +12148,10 @@
       </c>
     </row>
     <row r="409" spans="1:8">
-      <c r="A409" s="1">
+      <c r="A409" s="2">
         <v>420000</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="1">
         <v>2100</v>
       </c>
       <c r="C409" t="s">
@@ -12171,10 +12174,10 @@
       </c>
     </row>
     <row r="410" spans="1:8">
-      <c r="A410" s="1">
+      <c r="A410" s="2">
         <v>470000</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="1">
         <v>2350</v>
       </c>
       <c r="C410" t="s">
@@ -12197,10 +12200,10 @@
       </c>
     </row>
     <row r="411" spans="1:8">
-      <c r="A411" s="1">
+      <c r="A411" s="2">
         <v>440000</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="1">
         <v>2200</v>
       </c>
       <c r="C411" t="s">
@@ -12223,10 +12226,10 @@
       </c>
     </row>
     <row r="412" spans="1:8">
-      <c r="A412" s="1">
+      <c r="A412" s="2">
         <v>360000</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="1">
         <v>1800</v>
       </c>
       <c r="C412" t="s">
@@ -12249,10 +12252,10 @@
       </c>
     </row>
     <row r="413" spans="1:8">
-      <c r="A413" s="1">
+      <c r="A413" s="2">
         <v>500000</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="1">
         <v>2500</v>
       </c>
       <c r="C413" t="s">
@@ -12275,10 +12278,10 @@
       </c>
     </row>
     <row r="414" spans="1:8">
-      <c r="A414" s="1">
+      <c r="A414" s="2">
         <v>480000</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="1">
         <v>2400</v>
       </c>
       <c r="C414" t="s">
@@ -12301,10 +12304,10 @@
       </c>
     </row>
     <row r="415" spans="1:8">
-      <c r="A415" s="1">
+      <c r="A415" s="2">
         <v>490000</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="1">
         <v>2450</v>
       </c>
       <c r="C415" t="s">
@@ -12327,10 +12330,10 @@
       </c>
     </row>
     <row r="416" spans="1:8">
-      <c r="A416" s="1">
+      <c r="A416" s="2">
         <v>440000</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="1">
         <v>2200</v>
       </c>
       <c r="C416" t="s">
@@ -12353,10 +12356,10 @@
       </c>
     </row>
     <row r="417" spans="1:8">
-      <c r="A417" s="1">
+      <c r="A417" s="2">
         <v>450000</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="1">
         <v>2250</v>
       </c>
       <c r="C417" t="s">
@@ -12379,10 +12382,10 @@
       </c>
     </row>
     <row r="418" spans="1:8">
-      <c r="A418" s="1">
+      <c r="A418" s="2">
         <v>490000</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="1">
         <v>2450</v>
       </c>
       <c r="C418" t="s">
@@ -12405,10 +12408,10 @@
       </c>
     </row>
     <row r="419" spans="1:8">
-      <c r="A419" s="1">
+      <c r="A419" s="2">
         <v>390000</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="1">
         <v>1950</v>
       </c>
       <c r="C419" t="s">
@@ -12431,10 +12434,10 @@
       </c>
     </row>
     <row r="420" spans="1:8">
-      <c r="A420" s="1">
+      <c r="A420" s="2">
         <v>330000</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="1">
         <v>1650</v>
       </c>
       <c r="C420" t="s">
@@ -12457,10 +12460,10 @@
       </c>
     </row>
     <row r="421" spans="1:8">
-      <c r="A421" s="1">
+      <c r="A421" s="2">
         <v>460000</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="1">
         <v>2300</v>
       </c>
       <c r="C421" t="s">
@@ -12483,10 +12486,10 @@
       </c>
     </row>
     <row r="422" spans="1:8">
-      <c r="A422" s="1">
+      <c r="A422" s="2">
         <v>500000</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="1">
         <v>2500</v>
       </c>
       <c r="C422" t="s">
@@ -12509,10 +12512,10 @@
       </c>
     </row>
     <row r="423" spans="1:8">
-      <c r="A423" s="1">
+      <c r="A423" s="2">
         <v>480000</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="1">
         <v>2400</v>
       </c>
       <c r="C423" t="s">
@@ -12535,10 +12538,10 @@
       </c>
     </row>
     <row r="424" spans="1:8">
-      <c r="A424" s="1">
+      <c r="A424" s="2">
         <v>420000</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="1">
         <v>2100</v>
       </c>
       <c r="C424" t="s">
@@ -12561,10 +12564,10 @@
       </c>
     </row>
     <row r="425" spans="1:8">
-      <c r="A425" s="1">
+      <c r="A425" s="2">
         <v>440000</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="1">
         <v>2200</v>
       </c>
       <c r="C425" t="s">
@@ -12587,10 +12590,10 @@
       </c>
     </row>
     <row r="426" spans="1:8">
-      <c r="A426" s="1">
+      <c r="A426" s="2">
         <v>520000</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="1">
         <v>2600</v>
       </c>
       <c r="C426" t="s">
@@ -12613,10 +12616,10 @@
       </c>
     </row>
     <row r="427" spans="1:8">
-      <c r="A427" s="1">
+      <c r="A427" s="2">
         <v>480000</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="1">
         <v>2400</v>
       </c>
       <c r="C427" t="s">
@@ -12639,10 +12642,10 @@
       </c>
     </row>
     <row r="428" spans="1:8">
-      <c r="A428" s="1">
+      <c r="A428" s="2">
         <v>470000</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="1">
         <v>2350</v>
       </c>
       <c r="C428" t="s">
@@ -12665,10 +12668,10 @@
       </c>
     </row>
     <row r="429" spans="1:8">
-      <c r="A429" s="1">
+      <c r="A429" s="2">
         <v>400000</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="1">
         <v>2000</v>
       </c>
       <c r="C429" t="s">
@@ -12691,10 +12694,10 @@
       </c>
     </row>
     <row r="430" spans="1:8">
-      <c r="A430" s="1">
+      <c r="A430" s="2">
         <v>560000</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="1">
         <v>2800</v>
       </c>
       <c r="C430" t="s">
@@ -12717,10 +12720,10 @@
       </c>
     </row>
     <row r="431" spans="1:8">
-      <c r="A431" s="1">
+      <c r="A431" s="2">
         <v>520000</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="1">
         <v>2600</v>
       </c>
       <c r="C431" t="s">
@@ -12743,10 +12746,10 @@
       </c>
     </row>
     <row r="432" spans="1:8">
-      <c r="A432" s="1">
+      <c r="A432" s="2">
         <v>550000</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="1">
         <v>2750</v>
       </c>
       <c r="C432" t="s">
@@ -12769,10 +12772,10 @@
       </c>
     </row>
     <row r="433" spans="1:8">
-      <c r="A433" s="1">
+      <c r="A433" s="2">
         <v>450000</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="1">
         <v>2250</v>
       </c>
       <c r="C433" t="s">
@@ -12795,10 +12798,10 @@
       </c>
     </row>
     <row r="434" spans="1:8">
-      <c r="A434" s="1">
+      <c r="A434" s="2">
         <v>390000</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="1">
         <v>1950</v>
       </c>
       <c r="C434" t="s">
@@ -12821,10 +12824,10 @@
       </c>
     </row>
     <row r="435" spans="1:8">
-      <c r="A435" s="1">
+      <c r="A435" s="2">
         <v>480000</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="1">
         <v>2400</v>
       </c>
       <c r="C435" t="s">
@@ -12847,10 +12850,10 @@
       </c>
     </row>
     <row r="436" spans="1:8">
-      <c r="A436" s="1">
+      <c r="A436" s="2">
         <v>520000</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="1">
         <v>2600</v>
       </c>
       <c r="C436" t="s">
@@ -12873,10 +12876,10 @@
       </c>
     </row>
     <row r="437" spans="1:8">
-      <c r="A437" s="1">
+      <c r="A437" s="2">
         <v>500000</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="1">
         <v>2500</v>
       </c>
       <c r="C437" t="s">
@@ -12899,10 +12902,10 @@
       </c>
     </row>
     <row r="438" spans="1:8">
-      <c r="A438" s="1">
+      <c r="A438" s="2">
         <v>440000</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="1">
         <v>2200</v>
       </c>
       <c r="C438" t="s">
@@ -12925,10 +12928,10 @@
       </c>
     </row>
     <row r="439" spans="1:8">
-      <c r="A439" s="1">
+      <c r="A439" s="2">
         <v>480000</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="1">
         <v>2400</v>
       </c>
       <c r="C439" t="s">
@@ -12951,10 +12954,10 @@
       </c>
     </row>
     <row r="440" spans="1:8">
-      <c r="A440" s="1">
+      <c r="A440" s="2">
         <v>600000</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="1">
         <v>3000</v>
       </c>
       <c r="C440" t="s">
@@ -12977,10 +12980,10 @@
       </c>
     </row>
     <row r="441" spans="1:8">
-      <c r="A441" s="1">
+      <c r="A441" s="2">
         <v>490000</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="1">
         <v>2450</v>
       </c>
       <c r="C441" t="s">
@@ -13003,10 +13006,10 @@
       </c>
     </row>
     <row r="442" spans="1:8">
-      <c r="A442" s="1">
+      <c r="A442" s="2">
         <v>490000</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="1">
         <v>2450</v>
       </c>
       <c r="C442" t="s">
@@ -13029,10 +13032,10 @@
       </c>
     </row>
     <row r="443" spans="1:8">
-      <c r="A443" s="1">
+      <c r="A443" s="2">
         <v>420000</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="1">
         <v>2100</v>
       </c>
       <c r="C443" t="s">
@@ -13055,10 +13058,10 @@
       </c>
     </row>
     <row r="444" spans="1:8">
-      <c r="A444" s="1">
+      <c r="A444" s="2">
         <v>580000</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="1">
         <v>2900</v>
       </c>
       <c r="C444" t="s">
@@ -13081,10 +13084,10 @@
       </c>
     </row>
     <row r="445" spans="1:8">
-      <c r="A445" s="1">
+      <c r="A445" s="2">
         <v>540000</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="1">
         <v>2700</v>
       </c>
       <c r="C445" t="s">
@@ -13107,10 +13110,10 @@
       </c>
     </row>
     <row r="446" spans="1:8">
-      <c r="A446" s="1">
+      <c r="A446" s="2">
         <v>590000</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="1">
         <v>2950</v>
       </c>
       <c r="C446" t="s">
@@ -13133,10 +13136,10 @@
       </c>
     </row>
     <row r="447" spans="1:8">
-      <c r="A447" s="1">
+      <c r="A447" s="2">
         <v>500000</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="1">
         <v>2500</v>
       </c>
       <c r="C447" t="s">
@@ -13159,10 +13162,10 @@
       </c>
     </row>
     <row r="448" spans="1:8">
-      <c r="A448" s="1">
+      <c r="A448" s="2">
         <v>430000</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="1">
         <v>2150</v>
       </c>
       <c r="C448" t="s">
@@ -13185,10 +13188,10 @@
       </c>
     </row>
     <row r="449" spans="1:8">
-      <c r="A449" s="1">
+      <c r="A449" s="2">
         <v>510000</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="1">
         <v>2550</v>
       </c>
       <c r="C449" t="s">
@@ -13211,10 +13214,10 @@
       </c>
     </row>
     <row r="450" spans="1:8">
-      <c r="A450" s="1">
+      <c r="A450" s="2">
         <v>540000</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="1">
         <v>2700</v>
       </c>
       <c r="C450" t="s">
@@ -13237,10 +13240,10 @@
       </c>
     </row>
     <row r="451" spans="1:8">
-      <c r="A451" s="1">
+      <c r="A451" s="2">
         <v>520000</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="1">
         <v>2600</v>
       </c>
       <c r="C451" t="s">
@@ -13263,10 +13266,10 @@
       </c>
     </row>
     <row r="452" spans="1:8">
-      <c r="A452" s="1">
+      <c r="A452" s="2">
         <v>460000</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="1">
         <v>2300</v>
       </c>
       <c r="C452" t="s">
@@ -13289,10 +13292,10 @@
       </c>
     </row>
     <row r="453" spans="1:8">
-      <c r="A453" s="1">
+      <c r="A453" s="2">
         <v>490000</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="1">
         <v>2450</v>
       </c>
       <c r="C453" t="s">
@@ -13315,10 +13318,10 @@
       </c>
     </row>
     <row r="454" spans="1:8">
-      <c r="A454" s="1">
+      <c r="A454" s="2">
         <v>500000</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="1">
         <v>2500</v>
       </c>
       <c r="C454" t="s">
@@ -13341,10 +13344,10 @@
       </c>
     </row>
     <row r="455" spans="1:8">
-      <c r="A455" s="1">
+      <c r="A455" s="2">
         <v>300000</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="1">
         <v>1500</v>
       </c>
       <c r="C455" t="s">
@@ -13367,10 +13370,10 @@
       </c>
     </row>
     <row r="456" spans="1:8">
-      <c r="A456" s="1">
+      <c r="A456" s="2">
         <v>450000</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="1">
         <v>2250</v>
       </c>
       <c r="C456" t="s">
@@ -13393,10 +13396,10 @@
       </c>
     </row>
     <row r="457" spans="1:8">
-      <c r="A457" s="1">
+      <c r="A457" s="2">
         <v>280000</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="1">
         <v>1400</v>
       </c>
       <c r="C457" t="s">
@@ -13419,10 +13422,10 @@
       </c>
     </row>
     <row r="458" spans="1:8">
-      <c r="A458" s="1">
+      <c r="A458" s="2">
         <v>320000</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="1">
         <v>1600</v>
       </c>
       <c r="C458" t="s">
@@ -13445,10 +13448,10 @@
       </c>
     </row>
     <row r="459" spans="1:8">
-      <c r="A459" s="1">
+      <c r="A459" s="2">
         <v>550000</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="1">
         <v>2750</v>
       </c>
       <c r="C459" t="s">
@@ -13471,10 +13474,10 @@
       </c>
     </row>
     <row r="460" spans="1:8">
-      <c r="A460" s="1">
+      <c r="A460" s="2">
         <v>420000</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="1">
         <v>2100</v>
       </c>
       <c r="C460" t="s">
@@ -13497,10 +13500,10 @@
       </c>
     </row>
     <row r="461" spans="1:8">
-      <c r="A461" s="1">
+      <c r="A461" s="2">
         <v>380000</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="1">
         <v>1900</v>
       </c>
       <c r="C461" t="s">
@@ -13523,10 +13526,10 @@
       </c>
     </row>
     <row r="462" spans="1:8">
-      <c r="A462" s="1">
+      <c r="A462" s="2">
         <v>240000</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="1">
         <v>1200</v>
       </c>
       <c r="C462" t="s">
@@ -13549,10 +13552,10 @@
       </c>
     </row>
     <row r="463" spans="1:8">
-      <c r="A463" s="1">
+      <c r="A463" s="2">
         <v>310000</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="1">
         <v>1550</v>
       </c>
       <c r="C463" t="s">
@@ -13575,10 +13578,10 @@
       </c>
     </row>
     <row r="464" spans="1:8">
-      <c r="A464" s="1">
+      <c r="A464" s="2">
         <v>430000</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="1">
         <v>2150</v>
       </c>
       <c r="C464" t="s">
@@ -13601,10 +13604,10 @@
       </c>
     </row>
     <row r="465" spans="1:8">
-      <c r="A465" s="1">
+      <c r="A465" s="2">
         <v>350000</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="1">
         <v>1750</v>
       </c>
       <c r="C465" t="s">
@@ -13627,10 +13630,10 @@
       </c>
     </row>
     <row r="466" spans="1:8">
-      <c r="A466" s="1">
+      <c r="A466" s="2">
         <v>270000</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="1">
         <v>1350</v>
       </c>
       <c r="C466" t="s">
@@ -13653,10 +13656,10 @@
       </c>
     </row>
     <row r="467" spans="1:8">
-      <c r="A467" s="1">
+      <c r="A467" s="2">
         <v>320000</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="1">
         <v>1600</v>
       </c>
       <c r="C467" t="s">
@@ -13679,10 +13682,10 @@
       </c>
     </row>
     <row r="468" spans="1:8">
-      <c r="A468" s="1">
+      <c r="A468" s="2">
         <v>290000</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="1">
         <v>1450</v>
       </c>
       <c r="C468" t="s">
@@ -13705,10 +13708,10 @@
       </c>
     </row>
     <row r="469" spans="1:8">
-      <c r="A469" s="1">
+      <c r="A469" s="2">
         <v>480000</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="1">
         <v>2400</v>
       </c>
       <c r="C469" t="s">
@@ -13731,10 +13734,10 @@
       </c>
     </row>
     <row r="470" spans="1:8">
-      <c r="A470" s="1">
+      <c r="A470" s="2">
         <v>360000</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="1">
         <v>1800</v>
       </c>
       <c r="C470" t="s">
@@ -13757,10 +13760,10 @@
       </c>
     </row>
     <row r="471" spans="1:8">
-      <c r="A471" s="1">
+      <c r="A471" s="2">
         <v>310000</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="1">
         <v>1550</v>
       </c>
       <c r="C471" t="s">
@@ -13783,10 +13786,10 @@
       </c>
     </row>
     <row r="472" spans="1:8">
-      <c r="A472" s="1">
+      <c r="A472" s="2">
         <v>420000</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="1">
         <v>2100</v>
       </c>
       <c r="C472" t="s">
@@ -13809,10 +13812,10 @@
       </c>
     </row>
     <row r="473" spans="1:8">
-      <c r="A473" s="1">
+      <c r="A473" s="2">
         <v>260000</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="1">
         <v>1300</v>
       </c>
       <c r="C473" t="s">
@@ -13835,10 +13838,10 @@
       </c>
     </row>
     <row r="474" spans="1:8">
-      <c r="A474" s="1">
+      <c r="A474" s="2">
         <v>290000</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="1">
         <v>1450</v>
       </c>
       <c r="C474" t="s">
@@ -13861,10 +13864,10 @@
       </c>
     </row>
     <row r="475" spans="1:8">
-      <c r="A475" s="1">
+      <c r="A475" s="2">
         <v>450000</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="1">
         <v>2250</v>
       </c>
       <c r="C475" t="s">
@@ -13887,10 +13890,10 @@
       </c>
     </row>
     <row r="476" spans="1:8">
-      <c r="A476" s="1">
+      <c r="A476" s="2">
         <v>340000</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="1">
         <v>1700</v>
       </c>
       <c r="C476" t="s">
@@ -13913,10 +13916,10 @@
       </c>
     </row>
     <row r="477" spans="1:8">
-      <c r="A477" s="1">
+      <c r="A477" s="2">
         <v>250000</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="1">
         <v>1250</v>
       </c>
       <c r="C477" t="s">
@@ -13939,10 +13942,10 @@
       </c>
     </row>
     <row r="478" spans="1:8">
-      <c r="A478" s="1">
+      <c r="A478" s="2">
         <v>280000</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="1">
         <v>1400</v>
       </c>
       <c r="C478" t="s">
@@ -13965,10 +13968,10 @@
       </c>
     </row>
     <row r="479" spans="1:8">
-      <c r="A479" s="1">
+      <c r="A479" s="2">
         <v>320000</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="1">
         <v>1600</v>
       </c>
       <c r="C479" t="s">
@@ -13991,10 +13994,10 @@
       </c>
     </row>
     <row r="480" spans="1:8">
-      <c r="A480" s="1">
+      <c r="A480" s="2">
         <v>480000</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="1">
         <v>2400</v>
       </c>
       <c r="C480" t="s">
@@ -14017,10 +14020,10 @@
       </c>
     </row>
     <row r="481" spans="1:8">
-      <c r="A481" s="1">
+      <c r="A481" s="2">
         <v>370000</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="1">
         <v>1850</v>
       </c>
       <c r="C481" t="s">
@@ -14043,10 +14046,10 @@
       </c>
     </row>
     <row r="482" spans="1:8">
-      <c r="A482" s="1">
+      <c r="A482" s="2">
         <v>420000</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="1">
         <v>2100</v>
       </c>
       <c r="C482" t="s">
@@ -14069,10 +14072,10 @@
       </c>
     </row>
     <row r="483" spans="1:8">
-      <c r="A483" s="1">
+      <c r="A483" s="2">
         <v>380000</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="1">
         <v>1900</v>
       </c>
       <c r="C483" t="s">
@@ -14095,10 +14098,10 @@
       </c>
     </row>
     <row r="484" spans="1:8">
-      <c r="A484" s="1">
+      <c r="A484" s="2">
         <v>290000</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="1">
         <v>1450</v>
       </c>
       <c r="C484" t="s">
@@ -14121,10 +14124,10 @@
       </c>
     </row>
     <row r="485" spans="1:8">
-      <c r="A485" s="1">
+      <c r="A485" s="2">
         <v>350000</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="1">
         <v>1750</v>
       </c>
       <c r="C485" t="s">
@@ -14147,10 +14150,10 @@
       </c>
     </row>
     <row r="486" spans="1:8">
-      <c r="A486" s="1">
+      <c r="A486" s="2">
         <v>270000</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="1">
         <v>1350</v>
       </c>
       <c r="C486" t="s">
@@ -14173,10 +14176,10 @@
       </c>
     </row>
     <row r="487" spans="1:8">
-      <c r="A487" s="1">
+      <c r="A487" s="2">
         <v>310000</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="1">
         <v>1550</v>
       </c>
       <c r="C487" t="s">
@@ -14199,10 +14202,10 @@
       </c>
     </row>
     <row r="488" spans="1:8">
-      <c r="A488" s="1">
+      <c r="A488" s="2">
         <v>430000</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="1">
         <v>2150</v>
       </c>
       <c r="C488" t="s">
@@ -14225,10 +14228,10 @@
       </c>
     </row>
     <row r="489" spans="1:8">
-      <c r="A489" s="1">
+      <c r="A489" s="2">
         <v>460000</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="1">
         <v>2300</v>
       </c>
       <c r="C489" t="s">
@@ -14251,10 +14254,10 @@
       </c>
     </row>
     <row r="490" spans="1:8">
-      <c r="A490" s="1">
+      <c r="A490" s="2">
         <v>300000</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="1">
         <v>1500</v>
       </c>
       <c r="C490" t="s">
@@ -14277,10 +14280,10 @@
       </c>
     </row>
     <row r="491" spans="1:8">
-      <c r="A491" s="1">
+      <c r="A491" s="2">
         <v>340000</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="1">
         <v>1700</v>
       </c>
       <c r="C491" t="s">
@@ -14303,10 +14306,10 @@
       </c>
     </row>
     <row r="492" spans="1:8">
-      <c r="A492" s="1">
+      <c r="A492" s="2">
         <v>250000</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="1">
         <v>1250</v>
       </c>
       <c r="C492" t="s">
@@ -14329,10 +14332,10 @@
       </c>
     </row>
     <row r="493" spans="1:8">
-      <c r="A493" s="1">
+      <c r="A493" s="2">
         <v>280000</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="1">
         <v>1400</v>
       </c>
       <c r="C493" t="s">
@@ -14355,10 +14358,10 @@
       </c>
     </row>
     <row r="494" spans="1:8">
-      <c r="A494" s="1">
+      <c r="A494" s="2">
         <v>380000</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="1">
         <v>1900</v>
       </c>
       <c r="C494" t="s">
@@ -14381,10 +14384,10 @@
       </c>
     </row>
     <row r="495" spans="1:8">
-      <c r="A495" s="1">
+      <c r="A495" s="2">
         <v>360000</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="1">
         <v>1800</v>
       </c>
       <c r="C495" t="s">
@@ -14407,10 +14410,10 @@
       </c>
     </row>
     <row r="496" spans="1:8">
-      <c r="A496" s="1">
+      <c r="A496" s="2">
         <v>300000</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="1">
         <v>1500</v>
       </c>
       <c r="C496" t="s">
@@ -14433,10 +14436,10 @@
       </c>
     </row>
     <row r="497" spans="1:8">
-      <c r="A497" s="1">
+      <c r="A497" s="2">
         <v>430000</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="1">
         <v>2150</v>
       </c>
       <c r="C497" t="s">
@@ -14459,10 +14462,10 @@
       </c>
     </row>
     <row r="498" spans="1:8">
-      <c r="A498" s="1">
+      <c r="A498" s="2">
         <v>450000</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="1">
         <v>2250</v>
       </c>
       <c r="C498" t="s">
@@ -14485,10 +14488,10 @@
       </c>
     </row>
     <row r="499" spans="1:8">
-      <c r="A499" s="1">
+      <c r="A499" s="2">
         <v>320000</v>
       </c>
-      <c r="B499">
+      <c r="B499" s="1">
         <v>1600</v>
       </c>
       <c r="C499" t="s">
@@ -14511,10 +14514,10 @@
       </c>
     </row>
     <row r="500" spans="1:8">
-      <c r="A500" s="1">
+      <c r="A500" s="2">
         <v>410000</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="1">
         <v>2050</v>
       </c>
       <c r="C500" t="s">
@@ -14537,10 +14540,10 @@
       </c>
     </row>
     <row r="501" spans="1:8">
-      <c r="A501" s="1">
+      <c r="A501" s="2">
         <v>390000</v>
       </c>
-      <c r="B501">
+      <c r="B501" s="1">
         <v>1950</v>
       </c>
       <c r="C501" t="s">
@@ -14563,10 +14566,10 @@
       </c>
     </row>
     <row r="502" spans="1:8">
-      <c r="A502" s="1">
+      <c r="A502" s="2">
         <v>260000</v>
       </c>
-      <c r="B502">
+      <c r="B502" s="1">
         <v>1300</v>
       </c>
       <c r="C502" t="s">
@@ -14589,10 +14592,10 @@
       </c>
     </row>
     <row r="503" spans="1:8">
-      <c r="A503" s="1">
+      <c r="A503" s="2">
         <v>480000</v>
       </c>
-      <c r="B503">
+      <c r="B503" s="1">
         <v>2400</v>
       </c>
       <c r="C503" t="s">
@@ -14615,10 +14618,10 @@
       </c>
     </row>
     <row r="504" spans="1:8">
-      <c r="A504" s="1">
+      <c r="A504" s="2">
         <v>340000</v>
       </c>
-      <c r="B504">
+      <c r="B504" s="1">
         <v>1700</v>
       </c>
       <c r="C504" t="s">
@@ -14641,10 +14644,10 @@
       </c>
     </row>
     <row r="505" spans="1:8">
-      <c r="A505" s="1">
+      <c r="A505" s="2">
         <v>370000</v>
       </c>
-      <c r="B505">
+      <c r="B505" s="1">
         <v>1850</v>
       </c>
       <c r="C505" t="s">
@@ -14667,10 +14670,10 @@
       </c>
     </row>
     <row r="506" spans="1:8">
-      <c r="A506" s="1">
+      <c r="A506" s="2">
         <v>330000</v>
       </c>
-      <c r="B506">
+      <c r="B506" s="1">
         <v>1650</v>
       </c>
       <c r="C506" t="s">
@@ -14693,10 +14696,10 @@
       </c>
     </row>
     <row r="507" spans="1:8">
-      <c r="A507" s="1">
+      <c r="A507" s="2">
         <v>290000</v>
       </c>
-      <c r="B507">
+      <c r="B507" s="1">
         <v>1450</v>
       </c>
       <c r="C507" t="s">
@@ -14719,10 +14722,10 @@
       </c>
     </row>
     <row r="508" spans="1:8">
-      <c r="A508" s="1">
+      <c r="A508" s="2">
         <v>2000000</v>
       </c>
-      <c r="B508">
+      <c r="B508" s="1">
         <v>10000</v>
       </c>
       <c r="C508" t="s">
@@ -14745,10 +14748,10 @@
       </c>
     </row>
     <row r="509" spans="1:8">
-      <c r="A509" s="1">
+      <c r="A509" s="2">
         <v>1800000</v>
       </c>
-      <c r="B509">
+      <c r="B509" s="1">
         <v>9000</v>
       </c>
       <c r="C509" t="s">
@@ -14771,10 +14774,10 @@
       </c>
     </row>
     <row r="510" spans="1:8">
-      <c r="A510" s="1">
+      <c r="A510" s="2">
         <v>2200000</v>
       </c>
-      <c r="B510">
+      <c r="B510" s="1">
         <v>11000</v>
       </c>
       <c r="C510" t="s">
@@ -14797,10 +14800,10 @@
       </c>
     </row>
     <row r="511" spans="1:8">
-      <c r="A511" s="1">
+      <c r="A511" s="2">
         <v>1600000</v>
       </c>
-      <c r="B511">
+      <c r="B511" s="1">
         <v>8000</v>
       </c>
       <c r="C511" t="s">
@@ -14823,10 +14826,10 @@
       </c>
     </row>
     <row r="512" spans="1:8">
-      <c r="A512" s="1">
+      <c r="A512" s="2">
         <v>2500000</v>
       </c>
-      <c r="B512">
+      <c r="B512" s="1">
         <v>12500</v>
       </c>
       <c r="C512" t="s">
@@ -14849,10 +14852,10 @@
       </c>
     </row>
     <row r="513" spans="1:8">
-      <c r="A513" s="1">
+      <c r="A513" s="2">
         <v>3500000</v>
       </c>
-      <c r="B513">
+      <c r="B513" s="1">
         <v>17500</v>
       </c>
       <c r="C513" t="s">
@@ -14875,10 +14878,10 @@
       </c>
     </row>
     <row r="514" spans="1:8">
-      <c r="A514" s="1">
+      <c r="A514" s="2">
         <v>3200000</v>
       </c>
-      <c r="B514">
+      <c r="B514" s="1">
         <v>16000</v>
       </c>
       <c r="C514" t="s">
@@ -14901,10 +14904,10 @@
       </c>
     </row>
     <row r="515" spans="1:8">
-      <c r="A515" s="1">
+      <c r="A515" s="2">
         <v>3000000</v>
       </c>
-      <c r="B515">
+      <c r="B515" s="1">
         <v>15000</v>
       </c>
       <c r="C515" t="s">
@@ -14927,10 +14930,10 @@
       </c>
     </row>
     <row r="516" spans="1:8">
-      <c r="A516" s="1">
+      <c r="A516" s="2">
         <v>2800000</v>
       </c>
-      <c r="B516">
+      <c r="B516" s="1">
         <v>14000</v>
       </c>
       <c r="C516" t="s">
@@ -14953,10 +14956,10 @@
       </c>
     </row>
     <row r="517" spans="1:8">
-      <c r="A517" s="1">
+      <c r="A517" s="2">
         <v>3800000</v>
       </c>
-      <c r="B517">
+      <c r="B517" s="1">
         <v>19000</v>
       </c>
       <c r="C517" t="s">
@@ -14979,10 +14982,10 @@
       </c>
     </row>
     <row r="518" spans="1:8">
-      <c r="A518" s="1">
+      <c r="A518" s="2">
         <v>2100000</v>
       </c>
-      <c r="B518">
+      <c r="B518" s="1">
         <v>10500</v>
       </c>
       <c r="C518" t="s">
@@ -15005,10 +15008,10 @@
       </c>
     </row>
     <row r="519" spans="1:8">
-      <c r="A519" s="1">
+      <c r="A519" s="2">
         <v>2400000</v>
       </c>
-      <c r="B519">
+      <c r="B519" s="1">
         <v>12000</v>
       </c>
       <c r="C519" t="s">
@@ -15031,10 +15034,10 @@
       </c>
     </row>
     <row r="520" spans="1:8">
-      <c r="A520" s="1">
+      <c r="A520" s="2">
         <v>2300000</v>
       </c>
-      <c r="B520">
+      <c r="B520" s="1">
         <v>11500</v>
       </c>
       <c r="C520" t="s">
@@ -15057,10 +15060,10 @@
       </c>
     </row>
     <row r="521" spans="1:8">
-      <c r="A521" s="1">
+      <c r="A521" s="2">
         <v>2000000</v>
       </c>
-      <c r="B521">
+      <c r="B521" s="1">
         <v>10000</v>
       </c>
       <c r="C521" t="s">
@@ -15083,10 +15086,10 @@
       </c>
     </row>
     <row r="522" spans="1:8">
-      <c r="A522" s="1">
+      <c r="A522" s="2">
         <v>2600000</v>
       </c>
-      <c r="B522">
+      <c r="B522" s="1">
         <v>13000</v>
       </c>
       <c r="C522" t="s">
@@ -15109,10 +15112,10 @@
       </c>
     </row>
     <row r="523" spans="1:8">
-      <c r="A523" s="1">
+      <c r="A523" s="2">
         <v>5000000</v>
       </c>
-      <c r="B523">
+      <c r="B523" s="1">
         <v>25000</v>
       </c>
       <c r="C523" t="s">
@@ -15135,10 +15138,10 @@
       </c>
     </row>
     <row r="524" spans="1:8">
-      <c r="A524" s="1">
+      <c r="A524" s="2">
         <v>4800000</v>
       </c>
-      <c r="B524">
+      <c r="B524" s="1">
         <v>24000</v>
       </c>
       <c r="C524" t="s">
@@ -15161,20 +15164,20 @@
       </c>
     </row>
     <row r="525" spans="1:8">
-      <c r="A525" s="1">
-        <v>5200000</v>
-      </c>
-      <c r="B525">
-        <v>26000</v>
+      <c r="A525" s="2">
+        <v>4500000</v>
+      </c>
+      <c r="B525" s="1">
+        <v>22500</v>
       </c>
       <c r="C525" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D525" t="s">
         <v>384</v>
       </c>
       <c r="E525" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F525" t="s">
         <v>11</v>
@@ -15183,51 +15186,51 @@
         <v>11</v>
       </c>
       <c r="H525" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="526" spans="1:8">
-      <c r="A526" s="1">
-        <v>4500000</v>
-      </c>
-      <c r="B526">
-        <v>22500</v>
+      <c r="A526" s="2">
+        <v>4200000</v>
+      </c>
+      <c r="B526" s="1">
+        <v>21000</v>
       </c>
       <c r="C526" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D526" t="s">
+        <v>35</v>
+      </c>
+      <c r="E526" t="s">
+        <v>22</v>
+      </c>
+      <c r="F526" t="s">
+        <v>11</v>
+      </c>
+      <c r="G526" t="s">
+        <v>11</v>
+      </c>
+      <c r="H526" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527" s="2">
+        <v>4700000</v>
+      </c>
+      <c r="B527" s="1">
+        <v>23500</v>
+      </c>
+      <c r="C527" t="s">
         <v>385</v>
       </c>
-      <c r="E526" t="s">
+      <c r="D527" t="s">
+        <v>386</v>
+      </c>
+      <c r="E527" t="s">
         <v>10</v>
       </c>
-      <c r="F526" t="s">
-        <v>11</v>
-      </c>
-      <c r="G526" t="s">
-        <v>11</v>
-      </c>
-      <c r="H526" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
-      <c r="A527" s="1">
-        <v>4200000</v>
-      </c>
-      <c r="B527">
-        <v>21000</v>
-      </c>
-      <c r="C527" t="s">
-        <v>34</v>
-      </c>
-      <c r="D527" t="s">
-        <v>35</v>
-      </c>
-      <c r="E527" t="s">
-        <v>22</v>
-      </c>
       <c r="F527" t="s">
         <v>11</v>
       </c>
@@ -15235,18 +15238,18 @@
         <v>11</v>
       </c>
       <c r="H527" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="528" spans="1:8">
-      <c r="A528" s="1">
-        <v>4700000</v>
-      </c>
-      <c r="B528">
-        <v>23500</v>
+      <c r="A528" s="2">
+        <v>4600000</v>
+      </c>
+      <c r="B528" s="1">
+        <v>23000</v>
       </c>
       <c r="C528" t="s">
-        <v>386</v>
+        <v>23</v>
       </c>
       <c r="D528" t="s">
         <v>387</v>
@@ -15265,14 +15268,14 @@
       </c>
     </row>
     <row r="529" spans="1:8">
-      <c r="A529" s="1">
-        <v>4600000</v>
-      </c>
-      <c r="B529">
-        <v>23000</v>
+      <c r="A529" s="2">
+        <v>4400000</v>
+      </c>
+      <c r="B529" s="1">
+        <v>22000</v>
       </c>
       <c r="C529" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D529" t="s">
         <v>388</v>
@@ -15291,20 +15294,20 @@
       </c>
     </row>
     <row r="530" spans="1:8">
-      <c r="A530" s="1">
-        <v>4400000</v>
-      </c>
-      <c r="B530">
-        <v>22000</v>
+      <c r="A530" s="2">
+        <v>4300000</v>
+      </c>
+      <c r="B530" s="1">
+        <v>21500</v>
       </c>
       <c r="C530" t="s">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="D530" t="s">
         <v>389</v>
       </c>
       <c r="E530" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F530" t="s">
         <v>11</v>
@@ -15313,21 +15316,21 @@
         <v>11</v>
       </c>
       <c r="H530" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="531" spans="1:8">
-      <c r="A531" s="1">
-        <v>4300000</v>
-      </c>
-      <c r="B531">
-        <v>21500</v>
+      <c r="A531" s="2">
+        <v>320000</v>
+      </c>
+      <c r="B531" s="1">
+        <v>1600</v>
       </c>
       <c r="C531" t="s">
-        <v>371</v>
+        <v>113</v>
       </c>
       <c r="D531" t="s">
-        <v>390</v>
+        <v>114</v>
       </c>
       <c r="E531" t="s">
         <v>22</v>
@@ -15343,701 +15346,675 @@
       </c>
     </row>
     <row r="532" spans="1:8">
-      <c r="A532" s="1">
+      <c r="A532" s="2">
+        <v>420000</v>
+      </c>
+      <c r="B532" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C532" t="s">
+        <v>141</v>
+      </c>
+      <c r="D532" t="s">
+        <v>142</v>
+      </c>
+      <c r="E532" t="s">
+        <v>22</v>
+      </c>
+      <c r="F532" t="s">
+        <v>11</v>
+      </c>
+      <c r="G532" t="s">
+        <v>11</v>
+      </c>
+      <c r="H532" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" s="2">
+        <v>260000</v>
+      </c>
+      <c r="B533" s="1">
+        <v>1300</v>
+      </c>
+      <c r="C533" t="s">
+        <v>143</v>
+      </c>
+      <c r="D533" t="s">
+        <v>144</v>
+      </c>
+      <c r="E533" t="s">
+        <v>22</v>
+      </c>
+      <c r="F533" t="s">
+        <v>15</v>
+      </c>
+      <c r="G533" t="s">
+        <v>15</v>
+      </c>
+      <c r="H533" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534" s="2">
+        <v>290000</v>
+      </c>
+      <c r="B534" s="1">
+        <v>1450</v>
+      </c>
+      <c r="C534" t="s">
+        <v>145</v>
+      </c>
+      <c r="D534" t="s">
+        <v>146</v>
+      </c>
+      <c r="E534" t="s">
+        <v>22</v>
+      </c>
+      <c r="F534" t="s">
+        <v>15</v>
+      </c>
+      <c r="G534" t="s">
+        <v>15</v>
+      </c>
+      <c r="H534" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535" s="2">
+        <v>450000</v>
+      </c>
+      <c r="B535" s="1">
+        <v>2250</v>
+      </c>
+      <c r="C535" t="s">
+        <v>147</v>
+      </c>
+      <c r="D535" t="s">
+        <v>148</v>
+      </c>
+      <c r="E535" t="s">
+        <v>22</v>
+      </c>
+      <c r="F535" t="s">
+        <v>15</v>
+      </c>
+      <c r="G535" t="s">
+        <v>15</v>
+      </c>
+      <c r="H535" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" s="2">
+        <v>340000</v>
+      </c>
+      <c r="B536" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C536" t="s">
+        <v>149</v>
+      </c>
+      <c r="D536" t="s">
+        <v>150</v>
+      </c>
+      <c r="E536" t="s">
+        <v>22</v>
+      </c>
+      <c r="F536" t="s">
+        <v>15</v>
+      </c>
+      <c r="G536" t="s">
+        <v>15</v>
+      </c>
+      <c r="H536" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" s="2">
+        <v>250000</v>
+      </c>
+      <c r="B537" s="1">
+        <v>1250</v>
+      </c>
+      <c r="C537" t="s">
+        <v>151</v>
+      </c>
+      <c r="D537" t="s">
+        <v>152</v>
+      </c>
+      <c r="E537" t="s">
+        <v>22</v>
+      </c>
+      <c r="F537" t="s">
+        <v>15</v>
+      </c>
+      <c r="G537" t="s">
+        <v>15</v>
+      </c>
+      <c r="H537" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" s="2">
+        <v>280000</v>
+      </c>
+      <c r="B538" s="1">
+        <v>1400</v>
+      </c>
+      <c r="C538" t="s">
+        <v>153</v>
+      </c>
+      <c r="D538" t="s">
+        <v>154</v>
+      </c>
+      <c r="E538" t="s">
+        <v>22</v>
+      </c>
+      <c r="F538" t="s">
+        <v>15</v>
+      </c>
+      <c r="G538" t="s">
+        <v>15</v>
+      </c>
+      <c r="H538" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" s="2">
         <v>320000</v>
       </c>
-      <c r="B532">
+      <c r="B539" s="1">
         <v>1600</v>
       </c>
-      <c r="C532" t="s">
-        <v>113</v>
-      </c>
-      <c r="D532" t="s">
-        <v>114</v>
-      </c>
-      <c r="E532" t="s">
-        <v>22</v>
-      </c>
-      <c r="F532" t="s">
-        <v>11</v>
-      </c>
-      <c r="G532" t="s">
-        <v>11</v>
-      </c>
-      <c r="H532" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8">
-      <c r="A533" s="1">
+      <c r="C539" t="s">
+        <v>155</v>
+      </c>
+      <c r="D539" t="s">
+        <v>156</v>
+      </c>
+      <c r="E539" t="s">
+        <v>22</v>
+      </c>
+      <c r="F539" t="s">
+        <v>15</v>
+      </c>
+      <c r="G539" t="s">
+        <v>15</v>
+      </c>
+      <c r="H539" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" s="2">
+        <v>480000</v>
+      </c>
+      <c r="B540" s="1">
+        <v>2400</v>
+      </c>
+      <c r="C540" t="s">
+        <v>157</v>
+      </c>
+      <c r="D540" t="s">
+        <v>158</v>
+      </c>
+      <c r="E540" t="s">
+        <v>22</v>
+      </c>
+      <c r="F540" t="s">
+        <v>15</v>
+      </c>
+      <c r="G540" t="s">
+        <v>15</v>
+      </c>
+      <c r="H540" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" s="2">
+        <v>370000</v>
+      </c>
+      <c r="B541" s="1">
+        <v>1850</v>
+      </c>
+      <c r="C541" t="s">
+        <v>159</v>
+      </c>
+      <c r="D541" t="s">
+        <v>160</v>
+      </c>
+      <c r="E541" t="s">
+        <v>22</v>
+      </c>
+      <c r="F541" t="s">
+        <v>15</v>
+      </c>
+      <c r="G541" t="s">
+        <v>15</v>
+      </c>
+      <c r="H541" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" s="2">
         <v>420000</v>
       </c>
-      <c r="B533">
+      <c r="B542" s="1">
         <v>2100</v>
       </c>
-      <c r="C533" t="s">
-        <v>141</v>
-      </c>
-      <c r="D533" t="s">
-        <v>142</v>
-      </c>
-      <c r="E533" t="s">
-        <v>22</v>
-      </c>
-      <c r="F533" t="s">
-        <v>11</v>
-      </c>
-      <c r="G533" t="s">
-        <v>11</v>
-      </c>
-      <c r="H533" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8">
-      <c r="A534" s="1">
-        <v>260000</v>
-      </c>
-      <c r="B534">
-        <v>1300</v>
-      </c>
-      <c r="C534" t="s">
-        <v>143</v>
-      </c>
-      <c r="D534" t="s">
-        <v>144</v>
-      </c>
-      <c r="E534" t="s">
-        <v>22</v>
-      </c>
-      <c r="F534" t="s">
-        <v>15</v>
-      </c>
-      <c r="G534" t="s">
-        <v>15</v>
-      </c>
-      <c r="H534" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
-      <c r="A535" s="1">
+      <c r="C542" t="s">
+        <v>161</v>
+      </c>
+      <c r="D542" t="s">
+        <v>162</v>
+      </c>
+      <c r="E542" t="s">
+        <v>22</v>
+      </c>
+      <c r="F542" t="s">
+        <v>15</v>
+      </c>
+      <c r="G542" t="s">
+        <v>15</v>
+      </c>
+      <c r="H542" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="2">
+        <v>380000</v>
+      </c>
+      <c r="B543" s="1">
+        <v>1900</v>
+      </c>
+      <c r="C543" t="s">
+        <v>163</v>
+      </c>
+      <c r="D543" t="s">
+        <v>164</v>
+      </c>
+      <c r="E543" t="s">
+        <v>22</v>
+      </c>
+      <c r="F543" t="s">
+        <v>15</v>
+      </c>
+      <c r="G543" t="s">
+        <v>15</v>
+      </c>
+      <c r="H543" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="2">
         <v>290000</v>
       </c>
-      <c r="B535">
+      <c r="B544" s="1">
         <v>1450</v>
       </c>
-      <c r="C535" t="s">
-        <v>145</v>
-      </c>
-      <c r="D535" t="s">
-        <v>146</v>
-      </c>
-      <c r="E535" t="s">
-        <v>22</v>
-      </c>
-      <c r="F535" t="s">
-        <v>15</v>
-      </c>
-      <c r="G535" t="s">
-        <v>15</v>
-      </c>
-      <c r="H535" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
-      <c r="A536" s="1">
-        <v>450000</v>
-      </c>
-      <c r="B536">
-        <v>2250</v>
-      </c>
-      <c r="C536" t="s">
-        <v>147</v>
-      </c>
-      <c r="D536" t="s">
-        <v>148</v>
-      </c>
-      <c r="E536" t="s">
-        <v>22</v>
-      </c>
-      <c r="F536" t="s">
-        <v>15</v>
-      </c>
-      <c r="G536" t="s">
-        <v>15</v>
-      </c>
-      <c r="H536" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
-      <c r="A537" s="1">
+      <c r="C544" t="s">
+        <v>165</v>
+      </c>
+      <c r="D544" t="s">
+        <v>166</v>
+      </c>
+      <c r="E544" t="s">
+        <v>22</v>
+      </c>
+      <c r="F544" t="s">
+        <v>15</v>
+      </c>
+      <c r="G544" t="s">
+        <v>15</v>
+      </c>
+      <c r="H544" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="2">
+        <v>350000</v>
+      </c>
+      <c r="B545" s="1">
+        <v>1750</v>
+      </c>
+      <c r="C545" t="s">
+        <v>167</v>
+      </c>
+      <c r="D545" t="s">
+        <v>168</v>
+      </c>
+      <c r="E545" t="s">
+        <v>22</v>
+      </c>
+      <c r="F545" t="s">
+        <v>11</v>
+      </c>
+      <c r="G545" t="s">
+        <v>11</v>
+      </c>
+      <c r="H545" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="2">
+        <v>270000</v>
+      </c>
+      <c r="B546" s="1">
+        <v>1350</v>
+      </c>
+      <c r="C546" t="s">
+        <v>169</v>
+      </c>
+      <c r="D546" t="s">
+        <v>170</v>
+      </c>
+      <c r="E546" t="s">
+        <v>22</v>
+      </c>
+      <c r="F546" t="s">
+        <v>15</v>
+      </c>
+      <c r="G546" t="s">
+        <v>15</v>
+      </c>
+      <c r="H546" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="2">
+        <v>310000</v>
+      </c>
+      <c r="B547" s="1">
+        <v>1550</v>
+      </c>
+      <c r="C547" t="s">
+        <v>171</v>
+      </c>
+      <c r="D547" t="s">
+        <v>172</v>
+      </c>
+      <c r="E547" t="s">
+        <v>22</v>
+      </c>
+      <c r="F547" t="s">
+        <v>15</v>
+      </c>
+      <c r="G547" t="s">
+        <v>15</v>
+      </c>
+      <c r="H547" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" s="2">
+        <v>430000</v>
+      </c>
+      <c r="B548" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C548" t="s">
+        <v>173</v>
+      </c>
+      <c r="D548" t="s">
+        <v>174</v>
+      </c>
+      <c r="E548" t="s">
+        <v>22</v>
+      </c>
+      <c r="F548" t="s">
+        <v>15</v>
+      </c>
+      <c r="G548" t="s">
+        <v>15</v>
+      </c>
+      <c r="H548" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="2">
+        <v>460000</v>
+      </c>
+      <c r="B549" s="1">
+        <v>2300</v>
+      </c>
+      <c r="C549" t="s">
+        <v>175</v>
+      </c>
+      <c r="D549" t="s">
+        <v>176</v>
+      </c>
+      <c r="E549" t="s">
+        <v>22</v>
+      </c>
+      <c r="F549" t="s">
+        <v>15</v>
+      </c>
+      <c r="G549" t="s">
+        <v>15</v>
+      </c>
+      <c r="H549" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" s="2">
+        <v>300000</v>
+      </c>
+      <c r="B550" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C550" t="s">
+        <v>177</v>
+      </c>
+      <c r="D550" t="s">
+        <v>178</v>
+      </c>
+      <c r="E550" t="s">
+        <v>22</v>
+      </c>
+      <c r="F550" t="s">
+        <v>15</v>
+      </c>
+      <c r="G550" t="s">
+        <v>15</v>
+      </c>
+      <c r="H550" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" s="2">
         <v>340000</v>
       </c>
-      <c r="B537">
+      <c r="B551" s="1">
         <v>1700</v>
       </c>
-      <c r="C537" t="s">
-        <v>149</v>
-      </c>
-      <c r="D537" t="s">
-        <v>150</v>
-      </c>
-      <c r="E537" t="s">
-        <v>22</v>
-      </c>
-      <c r="F537" t="s">
-        <v>15</v>
-      </c>
-      <c r="G537" t="s">
-        <v>15</v>
-      </c>
-      <c r="H537" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
-      <c r="A538" s="1">
+      <c r="C551" t="s">
+        <v>179</v>
+      </c>
+      <c r="D551" t="s">
+        <v>180</v>
+      </c>
+      <c r="E551" t="s">
+        <v>22</v>
+      </c>
+      <c r="F551" t="s">
+        <v>15</v>
+      </c>
+      <c r="G551" t="s">
+        <v>15</v>
+      </c>
+      <c r="H551" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" s="2">
         <v>250000</v>
       </c>
-      <c r="B538">
+      <c r="B552" s="1">
         <v>1250</v>
       </c>
-      <c r="C538" t="s">
-        <v>151</v>
-      </c>
-      <c r="D538" t="s">
-        <v>152</v>
-      </c>
-      <c r="E538" t="s">
-        <v>22</v>
-      </c>
-      <c r="F538" t="s">
-        <v>15</v>
-      </c>
-      <c r="G538" t="s">
-        <v>15</v>
-      </c>
-      <c r="H538" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
-      <c r="A539" s="1">
+      <c r="C552" t="s">
+        <v>181</v>
+      </c>
+      <c r="D552" t="s">
+        <v>182</v>
+      </c>
+      <c r="E552" t="s">
+        <v>22</v>
+      </c>
+      <c r="F552" t="s">
+        <v>11</v>
+      </c>
+      <c r="G552" t="s">
+        <v>11</v>
+      </c>
+      <c r="H552" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" s="2">
         <v>280000</v>
       </c>
-      <c r="B539">
+      <c r="B553" s="1">
         <v>1400</v>
       </c>
-      <c r="C539" t="s">
-        <v>153</v>
-      </c>
-      <c r="D539" t="s">
-        <v>154</v>
-      </c>
-      <c r="E539" t="s">
-        <v>22</v>
-      </c>
-      <c r="F539" t="s">
-        <v>15</v>
-      </c>
-      <c r="G539" t="s">
-        <v>15</v>
-      </c>
-      <c r="H539" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
-      <c r="A540" s="1">
-        <v>320000</v>
-      </c>
-      <c r="B540">
-        <v>1600</v>
-      </c>
-      <c r="C540" t="s">
-        <v>155</v>
-      </c>
-      <c r="D540" t="s">
-        <v>156</v>
-      </c>
-      <c r="E540" t="s">
-        <v>22</v>
-      </c>
-      <c r="F540" t="s">
-        <v>15</v>
-      </c>
-      <c r="G540" t="s">
-        <v>15</v>
-      </c>
-      <c r="H540" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8">
-      <c r="A541" s="1">
-        <v>480000</v>
-      </c>
-      <c r="B541">
-        <v>2400</v>
-      </c>
-      <c r="C541" t="s">
-        <v>157</v>
-      </c>
-      <c r="D541" t="s">
-        <v>158</v>
-      </c>
-      <c r="E541" t="s">
-        <v>22</v>
-      </c>
-      <c r="F541" t="s">
-        <v>15</v>
-      </c>
-      <c r="G541" t="s">
-        <v>15</v>
-      </c>
-      <c r="H541" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
-      <c r="A542" s="1">
-        <v>370000</v>
-      </c>
-      <c r="B542">
-        <v>1850</v>
-      </c>
-      <c r="C542" t="s">
-        <v>159</v>
-      </c>
-      <c r="D542" t="s">
-        <v>160</v>
-      </c>
-      <c r="E542" t="s">
-        <v>22</v>
-      </c>
-      <c r="F542" t="s">
-        <v>15</v>
-      </c>
-      <c r="G542" t="s">
-        <v>15</v>
-      </c>
-      <c r="H542" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8">
-      <c r="A543" s="1">
-        <v>420000</v>
-      </c>
-      <c r="B543">
-        <v>2100</v>
-      </c>
-      <c r="C543" t="s">
-        <v>161</v>
-      </c>
-      <c r="D543" t="s">
-        <v>162</v>
-      </c>
-      <c r="E543" t="s">
-        <v>22</v>
-      </c>
-      <c r="F543" t="s">
-        <v>15</v>
-      </c>
-      <c r="G543" t="s">
-        <v>15</v>
-      </c>
-      <c r="H543" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8">
-      <c r="A544" s="1">
+      <c r="C553" t="s">
+        <v>183</v>
+      </c>
+      <c r="D553" t="s">
+        <v>184</v>
+      </c>
+      <c r="E553" t="s">
+        <v>22</v>
+      </c>
+      <c r="F553" t="s">
+        <v>15</v>
+      </c>
+      <c r="G553" t="s">
+        <v>15</v>
+      </c>
+      <c r="H553" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" s="2">
         <v>380000</v>
       </c>
-      <c r="B544">
+      <c r="B554" s="1">
         <v>1900</v>
       </c>
-      <c r="C544" t="s">
-        <v>163</v>
-      </c>
-      <c r="D544" t="s">
-        <v>164</v>
-      </c>
-      <c r="E544" t="s">
-        <v>22</v>
-      </c>
-      <c r="F544" t="s">
-        <v>15</v>
-      </c>
-      <c r="G544" t="s">
-        <v>15</v>
-      </c>
-      <c r="H544" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="A545" s="1">
-        <v>290000</v>
-      </c>
-      <c r="B545">
-        <v>1450</v>
-      </c>
-      <c r="C545" t="s">
-        <v>165</v>
-      </c>
-      <c r="D545" t="s">
-        <v>166</v>
-      </c>
-      <c r="E545" t="s">
-        <v>22</v>
-      </c>
-      <c r="F545" t="s">
-        <v>15</v>
-      </c>
-      <c r="G545" t="s">
-        <v>15</v>
-      </c>
-      <c r="H545" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8">
-      <c r="A546" s="1">
-        <v>350000</v>
-      </c>
-      <c r="B546">
-        <v>1750</v>
-      </c>
-      <c r="C546" t="s">
+      <c r="C554" t="s">
+        <v>185</v>
+      </c>
+      <c r="D554" t="s">
+        <v>186</v>
+      </c>
+      <c r="E554" t="s">
+        <v>22</v>
+      </c>
+      <c r="F554" t="s">
+        <v>15</v>
+      </c>
+      <c r="G554" t="s">
+        <v>15</v>
+      </c>
+      <c r="H554" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="2">
+        <v>360000</v>
+      </c>
+      <c r="B555" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C555" t="s">
+        <v>187</v>
+      </c>
+      <c r="D555" t="s">
+        <v>188</v>
+      </c>
+      <c r="E555" t="s">
+        <v>22</v>
+      </c>
+      <c r="F555" t="s">
+        <v>15</v>
+      </c>
+      <c r="G555" t="s">
+        <v>15</v>
+      </c>
+      <c r="H555" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="2">
+        <v>300000</v>
+      </c>
+      <c r="B556" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C556" t="s">
+        <v>189</v>
+      </c>
+      <c r="D556" t="s">
+        <v>190</v>
+      </c>
+      <c r="E556" t="s">
+        <v>22</v>
+      </c>
+      <c r="F556" t="s">
+        <v>15</v>
+      </c>
+      <c r="G556" t="s">
+        <v>15</v>
+      </c>
+      <c r="H556" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="2">
+        <v>430000</v>
+      </c>
+      <c r="B557" s="1">
+        <v>2150</v>
+      </c>
+      <c r="C557" t="s">
         <v>167</v>
       </c>
-      <c r="D546" t="s">
-        <v>168</v>
-      </c>
-      <c r="E546" t="s">
-        <v>22</v>
-      </c>
-      <c r="F546" t="s">
-        <v>11</v>
-      </c>
-      <c r="G546" t="s">
-        <v>11</v>
-      </c>
-      <c r="H546" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8">
-      <c r="A547" s="1">
-        <v>270000</v>
-      </c>
-      <c r="B547">
-        <v>1350</v>
-      </c>
-      <c r="C547" t="s">
-        <v>169</v>
-      </c>
-      <c r="D547" t="s">
-        <v>170</v>
-      </c>
-      <c r="E547" t="s">
-        <v>22</v>
-      </c>
-      <c r="F547" t="s">
-        <v>15</v>
-      </c>
-      <c r="G547" t="s">
-        <v>15</v>
-      </c>
-      <c r="H547" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
-      <c r="A548" s="1">
-        <v>310000</v>
-      </c>
-      <c r="B548">
-        <v>1550</v>
-      </c>
-      <c r="C548" t="s">
-        <v>171</v>
-      </c>
-      <c r="D548" t="s">
-        <v>172</v>
-      </c>
-      <c r="E548" t="s">
-        <v>22</v>
-      </c>
-      <c r="F548" t="s">
-        <v>15</v>
-      </c>
-      <c r="G548" t="s">
-        <v>15</v>
-      </c>
-      <c r="H548" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8">
-      <c r="A549" s="1">
-        <v>430000</v>
-      </c>
-      <c r="B549">
-        <v>2150</v>
-      </c>
-      <c r="C549" t="s">
-        <v>173</v>
-      </c>
-      <c r="D549" t="s">
-        <v>174</v>
-      </c>
-      <c r="E549" t="s">
-        <v>22</v>
-      </c>
-      <c r="F549" t="s">
-        <v>15</v>
-      </c>
-      <c r="G549" t="s">
-        <v>15</v>
-      </c>
-      <c r="H549" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8">
-      <c r="A550" s="1">
-        <v>460000</v>
-      </c>
-      <c r="B550">
-        <v>2300</v>
-      </c>
-      <c r="C550" t="s">
-        <v>175</v>
-      </c>
-      <c r="D550" t="s">
-        <v>176</v>
-      </c>
-      <c r="E550" t="s">
-        <v>22</v>
-      </c>
-      <c r="F550" t="s">
-        <v>15</v>
-      </c>
-      <c r="G550" t="s">
-        <v>15</v>
-      </c>
-      <c r="H550" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8">
-      <c r="A551" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B551">
-        <v>1500</v>
-      </c>
-      <c r="C551" t="s">
-        <v>177</v>
-      </c>
-      <c r="D551" t="s">
-        <v>178</v>
-      </c>
-      <c r="E551" t="s">
-        <v>22</v>
-      </c>
-      <c r="F551" t="s">
-        <v>15</v>
-      </c>
-      <c r="G551" t="s">
-        <v>15</v>
-      </c>
-      <c r="H551" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8">
-      <c r="A552" s="1">
-        <v>340000</v>
-      </c>
-      <c r="B552">
-        <v>1700</v>
-      </c>
-      <c r="C552" t="s">
-        <v>179</v>
-      </c>
-      <c r="D552" t="s">
-        <v>180</v>
-      </c>
-      <c r="E552" t="s">
-        <v>22</v>
-      </c>
-      <c r="F552" t="s">
-        <v>15</v>
-      </c>
-      <c r="G552" t="s">
-        <v>15</v>
-      </c>
-      <c r="H552" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8">
-      <c r="A553" s="1">
-        <v>250000</v>
-      </c>
-      <c r="B553">
-        <v>1250</v>
-      </c>
-      <c r="C553" t="s">
-        <v>181</v>
-      </c>
-      <c r="D553" t="s">
-        <v>182</v>
-      </c>
-      <c r="E553" t="s">
-        <v>22</v>
-      </c>
-      <c r="F553" t="s">
-        <v>11</v>
-      </c>
-      <c r="G553" t="s">
-        <v>11</v>
-      </c>
-      <c r="H553" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8">
-      <c r="A554" s="1">
-        <v>280000</v>
-      </c>
-      <c r="B554">
-        <v>1400</v>
-      </c>
-      <c r="C554" t="s">
-        <v>183</v>
-      </c>
-      <c r="D554" t="s">
-        <v>184</v>
-      </c>
-      <c r="E554" t="s">
-        <v>22</v>
-      </c>
-      <c r="F554" t="s">
-        <v>15</v>
-      </c>
-      <c r="G554" t="s">
-        <v>15</v>
-      </c>
-      <c r="H554" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8">
-      <c r="A555" s="1">
-        <v>380000</v>
-      </c>
-      <c r="B555">
-        <v>1900</v>
-      </c>
-      <c r="C555" t="s">
-        <v>185</v>
-      </c>
-      <c r="D555" t="s">
-        <v>186</v>
-      </c>
-      <c r="E555" t="s">
-        <v>22</v>
-      </c>
-      <c r="F555" t="s">
-        <v>15</v>
-      </c>
-      <c r="G555" t="s">
-        <v>15</v>
-      </c>
-      <c r="H555" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8">
-      <c r="A556" s="1">
-        <v>360000</v>
-      </c>
-      <c r="B556">
-        <v>1800</v>
-      </c>
-      <c r="C556" t="s">
-        <v>187</v>
-      </c>
-      <c r="D556" t="s">
-        <v>188</v>
-      </c>
-      <c r="E556" t="s">
-        <v>22</v>
-      </c>
-      <c r="F556" t="s">
-        <v>15</v>
-      </c>
-      <c r="G556" t="s">
-        <v>15</v>
-      </c>
-      <c r="H556" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="557" spans="1:8">
-      <c r="A557" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B557">
-        <v>1500</v>
-      </c>
-      <c r="C557" t="s">
-        <v>189</v>
-      </c>
       <c r="D557" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E557" t="s">
         <v>22</v>
       </c>
       <c r="F557" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G557" t="s">
-        <v>15</v>
-      </c>
-      <c r="H557" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="A558" s="1">
-        <v>430000</v>
-      </c>
-      <c r="B558">
-        <v>2150</v>
-      </c>
-      <c r="C558" t="s">
-        <v>167</v>
-      </c>
-      <c r="D558" t="s">
-        <v>191</v>
-      </c>
-      <c r="E558" t="s">
-        <v>22</v>
-      </c>
-      <c r="F558" t="s">
-        <v>11</v>
-      </c>
-      <c r="G558" t="s">
         <v>11</v>
       </c>
     </row>
